--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_20_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_20_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>843729.8521390301</v>
+        <v>754148.5233244327</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1798460.734225487</v>
+        <v>1799815.568849088</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18947942.59990023</v>
+        <v>18927214.16735297</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6637828.233610152</v>
+        <v>6644440.31483464</v>
       </c>
     </row>
     <row r="11">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>5.877000739367345</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2362,19 +2362,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>4.818249129315481</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.818249129315481</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2450,19 +2450,19 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="V24" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="W24" t="n">
-        <v>5.470310092320033</v>
+        <v>5.877000739367345</v>
       </c>
       <c r="X24" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>5.877000739367346</v>
       </c>
       <c r="D26" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.818249129315483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>4.818249129315481</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>5.877000739367345</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5.877000739367345</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>4.818249129315483</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>4.818249129315481</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2918,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="S30" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="U30" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="V30" t="n">
-        <v>5.470310092320033</v>
+        <v>5.877000739367345</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>4.818249129315481</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>5.877000739367345</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3161,19 +3161,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="U33" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="W33" t="n">
-        <v>5.470310092320033</v>
+        <v>5.877000739367345</v>
       </c>
       <c r="X33" t="n">
-        <v>4.818249129315481</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3268,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>5.877000739367345</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.818249129315483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.818249129315481</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>5.877000739367345</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3407,13 +3407,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>5.877000739367345</v>
       </c>
       <c r="F38" t="n">
-        <v>4.818249129315483</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3626,25 +3626,25 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>5.877000739367346</v>
       </c>
       <c r="S39" t="n">
-        <v>4.818249129315483</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="W39" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>4.818249129315483</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>5.877000739367346</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>5.877000739367346</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3881,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="X42" t="n">
-        <v>4.818249129315483</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
     </row>
     <row r="43">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="C44" t="n">
-        <v>4.818249129315483</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="G44" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>5.877000739367345</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>4.818249129315481</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>5.877000739367346</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5.963190557203818</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="C23" t="n">
-        <v>5.963190557203818</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="D23" t="n">
-        <v>5.963190557203818</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="E23" t="n">
-        <v>5.963190557203818</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F23" t="n">
-        <v>5.963190557203818</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G23" t="n">
-        <v>5.963190557203818</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="M23" t="n">
-        <v>5.853231798782435</v>
+        <v>7.139408255135177</v>
       </c>
       <c r="N23" t="n">
-        <v>11.26883879017927</v>
+        <v>13.74502897717613</v>
       </c>
       <c r="O23" t="n">
-        <v>16.4656333778833</v>
+        <v>20.08375593266998</v>
       </c>
       <c r="P23" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Q23" t="n">
-        <v>16.35567461946192</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="R23" t="n">
-        <v>16.35567461946192</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="S23" t="n">
-        <v>16.35567461946192</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="T23" t="n">
-        <v>10.8301088696437</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="U23" t="n">
-        <v>5.963190557203818</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="V23" t="n">
-        <v>5.963190557203818</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="W23" t="n">
-        <v>5.963190557203818</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="X23" t="n">
-        <v>5.963190557203818</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.963190557203818</v>
+        <v>13.20989349576602</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L24" t="n">
-        <v>5.853231798782435</v>
+        <v>7.139408255135177</v>
       </c>
       <c r="M24" t="n">
-        <v>11.26883879017927</v>
+        <v>13.47813521062903</v>
       </c>
       <c r="N24" t="n">
-        <v>16.6844457815761</v>
+        <v>20.08375593266998</v>
       </c>
       <c r="O24" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="P24" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Q24" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="R24" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="S24" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="T24" t="n">
-        <v>21.88124036928013</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="U24" t="n">
-        <v>21.88124036928013</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="V24" t="n">
-        <v>16.35567461946192</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="W24" t="n">
-        <v>10.8301088696437</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="X24" t="n">
-        <v>5.304543119825483</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.304543119825483</v>
+        <v>0.5337875330942188</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="C25" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="D25" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="E25" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F25" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G25" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H25" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I25" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J25" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K25" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L25" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="M25" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="N25" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="O25" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="P25" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Q25" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="R25" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="S25" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="T25" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="U25" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="V25" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="W25" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="X25" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Y25" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11.48875630702203</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="C26" t="n">
-        <v>11.48875630702203</v>
+        <v>20.7530122715116</v>
       </c>
       <c r="D26" t="n">
-        <v>5.963190557203818</v>
+        <v>14.01327069203914</v>
       </c>
       <c r="E26" t="n">
-        <v>5.963190557203818</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="F26" t="n">
-        <v>5.963190557203818</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="G26" t="n">
-        <v>5.963190557203818</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H26" t="n">
-        <v>5.963190557203818</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4376248073856027</v>
+        <v>6.811781384592904</v>
       </c>
       <c r="L26" t="n">
-        <v>5.853231798782435</v>
+        <v>6.811781384592904</v>
       </c>
       <c r="M26" t="n">
-        <v>11.26883879017927</v>
+        <v>6.872514488588069</v>
       </c>
       <c r="N26" t="n">
-        <v>16.6844457815761</v>
+        <v>13.47813521062903</v>
       </c>
       <c r="O26" t="n">
-        <v>21.88124036928013</v>
+        <v>20.08375593266998</v>
       </c>
       <c r="P26" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Q26" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="R26" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="S26" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="T26" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="U26" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="V26" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="W26" t="n">
-        <v>16.35567461946192</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="X26" t="n">
-        <v>16.35567461946192</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Y26" t="n">
-        <v>11.48875630702203</v>
+        <v>26.68937665471094</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16.35567461946192</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="C27" t="n">
-        <v>10.8301088696437</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="D27" t="n">
-        <v>5.304543119825483</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="E27" t="n">
-        <v>5.304543119825483</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F27" t="n">
-        <v>5.304543119825483</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G27" t="n">
-        <v>5.304543119825483</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H27" t="n">
-        <v>5.304543119825483</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J27" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K27" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L27" t="n">
-        <v>5.853231798782435</v>
+        <v>7.139408255135177</v>
       </c>
       <c r="M27" t="n">
-        <v>11.26883879017927</v>
+        <v>13.74502897717613</v>
       </c>
       <c r="N27" t="n">
-        <v>16.6844457815761</v>
+        <v>20.08375593266998</v>
       </c>
       <c r="O27" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="P27" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Q27" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="R27" t="n">
-        <v>21.88124036928013</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="S27" t="n">
-        <v>21.88124036928013</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="T27" t="n">
-        <v>21.88124036928013</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="U27" t="n">
-        <v>21.88124036928013</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="V27" t="n">
-        <v>21.88124036928013</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="W27" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="X27" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Y27" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="C28" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="D28" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="E28" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F28" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G28" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H28" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I28" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J28" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K28" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L28" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="M28" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="N28" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="O28" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="P28" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Q28" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="R28" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="S28" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="T28" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="U28" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="V28" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="W28" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="X28" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Y28" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.4376248073856027</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4376248073856027</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4376248073856027</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4376248073856027</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4376248073856027</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4376248073856027</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="H29" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K29" t="n">
-        <v>5.853231798782435</v>
+        <v>6.811781384592904</v>
       </c>
       <c r="L29" t="n">
-        <v>5.853231798782435</v>
+        <v>13.41740210663386</v>
       </c>
       <c r="M29" t="n">
-        <v>5.853231798782435</v>
+        <v>13.47813521062903</v>
       </c>
       <c r="N29" t="n">
-        <v>11.26883879017927</v>
+        <v>20.08375593266998</v>
       </c>
       <c r="O29" t="n">
-        <v>16.4656333778833</v>
+        <v>20.08375593266998</v>
       </c>
       <c r="P29" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Q29" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="R29" t="n">
-        <v>21.88124036928013</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="S29" t="n">
-        <v>21.88124036928013</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="T29" t="n">
-        <v>16.35567461946192</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="U29" t="n">
-        <v>11.48875630702203</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="V29" t="n">
-        <v>5.963190557203818</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="W29" t="n">
-        <v>0.4376248073856027</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="X29" t="n">
-        <v>0.4376248073856027</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.4376248073856027</v>
+        <v>19.94963507523848</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5.304543119825483</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="C30" t="n">
-        <v>5.304543119825483</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I30" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J30" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K30" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L30" t="n">
-        <v>5.853231798782435</v>
+        <v>6.872514488588069</v>
       </c>
       <c r="M30" t="n">
-        <v>11.26883879017927</v>
+        <v>13.47813521062903</v>
       </c>
       <c r="N30" t="n">
-        <v>16.6844457815761</v>
+        <v>20.08375593266998</v>
       </c>
       <c r="O30" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="P30" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Q30" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="R30" t="n">
-        <v>21.88124036928013</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="S30" t="n">
-        <v>16.35567461946192</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="T30" t="n">
-        <v>16.35567461946192</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="U30" t="n">
-        <v>10.8301088696437</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="V30" t="n">
-        <v>5.304543119825483</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="W30" t="n">
-        <v>5.304543119825483</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="X30" t="n">
-        <v>5.304543119825483</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.304543119825483</v>
+        <v>0.5337875330942188</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K31" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L31" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="M31" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="N31" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="O31" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="P31" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="R31" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="S31" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="T31" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="U31" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="V31" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="W31" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="X31" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>10.8301088696437</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="C32" t="n">
-        <v>10.8301088696437</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="D32" t="n">
-        <v>5.963190557203818</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="E32" t="n">
-        <v>5.963190557203818</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="F32" t="n">
-        <v>5.963190557203818</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="G32" t="n">
-        <v>5.963190557203818</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J32" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K32" t="n">
-        <v>0.4376248073856027</v>
+        <v>6.811781384592904</v>
       </c>
       <c r="L32" t="n">
-        <v>5.634419395089636</v>
+        <v>13.41740210663386</v>
       </c>
       <c r="M32" t="n">
-        <v>5.634419395089636</v>
+        <v>20.02302282867482</v>
       </c>
       <c r="N32" t="n">
-        <v>11.05002638648647</v>
+        <v>26.62864355071578</v>
       </c>
       <c r="O32" t="n">
-        <v>16.4656333778833</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="P32" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Q32" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="R32" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="S32" t="n">
-        <v>16.35567461946192</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="T32" t="n">
-        <v>10.8301088696437</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="U32" t="n">
-        <v>10.8301088696437</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="V32" t="n">
-        <v>10.8301088696437</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="W32" t="n">
-        <v>10.8301088696437</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="X32" t="n">
-        <v>10.8301088696437</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="Y32" t="n">
-        <v>10.8301088696437</v>
+        <v>7.273529112566679</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.963190557203818</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="C33" t="n">
-        <v>5.963190557203818</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="D33" t="n">
-        <v>5.963190557203818</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="E33" t="n">
-        <v>5.963190557203818</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F33" t="n">
-        <v>5.963190557203818</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G33" t="n">
-        <v>5.963190557203818</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H33" t="n">
-        <v>5.963190557203818</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I33" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J33" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K33" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L33" t="n">
-        <v>5.853231798782435</v>
+        <v>6.872514488588069</v>
       </c>
       <c r="M33" t="n">
-        <v>11.26883879017927</v>
+        <v>13.47813521062903</v>
       </c>
       <c r="N33" t="n">
-        <v>16.4656333778833</v>
+        <v>20.08375593266998</v>
       </c>
       <c r="O33" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="P33" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Q33" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="R33" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="S33" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="T33" t="n">
-        <v>21.88124036928013</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="U33" t="n">
-        <v>16.35567461946192</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="V33" t="n">
-        <v>16.35567461946192</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="W33" t="n">
-        <v>10.8301088696437</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="X33" t="n">
-        <v>5.963190557203818</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Y33" t="n">
-        <v>5.963190557203818</v>
+        <v>0.5337875330942188</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I34" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J34" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K34" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L34" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="M34" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="N34" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="O34" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="P34" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="R34" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="S34" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="T34" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="U34" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="V34" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="W34" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="X34" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>11.48875630702203</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="C35" t="n">
-        <v>5.963190557203818</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="D35" t="n">
-        <v>5.963190557203818</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4376248073856027</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4376248073856027</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J35" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K35" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L35" t="n">
-        <v>5.634419395089636</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="M35" t="n">
-        <v>11.05002638648647</v>
+        <v>7.139408255135177</v>
       </c>
       <c r="N35" t="n">
-        <v>16.4656333778833</v>
+        <v>13.74502897717613</v>
       </c>
       <c r="O35" t="n">
-        <v>16.4656333778833</v>
+        <v>20.35064969921709</v>
       </c>
       <c r="P35" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Q35" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="R35" t="n">
-        <v>16.35567461946192</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="S35" t="n">
-        <v>16.35567461946192</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="T35" t="n">
-        <v>16.35567461946192</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="U35" t="n">
-        <v>16.35567461946192</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="V35" t="n">
-        <v>16.35567461946192</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="W35" t="n">
-        <v>16.35567461946192</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="X35" t="n">
-        <v>16.35567461946192</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="Y35" t="n">
-        <v>11.48875630702203</v>
+        <v>7.273529112566679</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.4376248073856027</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4376248073856027</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4376248073856027</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4376248073856027</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="F36" t="n">
-        <v>0.4376248073856027</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H36" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I36" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J36" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K36" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L36" t="n">
-        <v>5.853231798782435</v>
+        <v>7.139408255135177</v>
       </c>
       <c r="M36" t="n">
-        <v>11.05002638648647</v>
+        <v>13.74502897717613</v>
       </c>
       <c r="N36" t="n">
-        <v>16.4656333778833</v>
+        <v>20.08375593266998</v>
       </c>
       <c r="O36" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="P36" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Q36" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="R36" t="n">
-        <v>16.35567461946192</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="S36" t="n">
-        <v>16.35567461946192</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="T36" t="n">
-        <v>16.35567461946192</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="U36" t="n">
-        <v>16.35567461946192</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="V36" t="n">
-        <v>16.35567461946192</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="W36" t="n">
-        <v>10.8301088696437</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="X36" t="n">
-        <v>10.8301088696437</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Y36" t="n">
-        <v>5.304543119825483</v>
+        <v>26.68937665471094</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I37" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L37" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="M37" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="N37" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="O37" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="P37" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="R37" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="S37" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="T37" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="U37" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="W37" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="X37" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.35567461946192</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="C38" t="n">
-        <v>16.35567461946192</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="D38" t="n">
-        <v>16.35567461946192</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="E38" t="n">
-        <v>16.35567461946192</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F38" t="n">
-        <v>11.48875630702203</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G38" t="n">
-        <v>5.963190557203818</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J38" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K38" t="n">
-        <v>5.853231798782435</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L38" t="n">
-        <v>5.853231798782435</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="M38" t="n">
-        <v>5.853231798782435</v>
+        <v>7.139408255135177</v>
       </c>
       <c r="N38" t="n">
-        <v>11.26883879017927</v>
+        <v>13.74502897717613</v>
       </c>
       <c r="O38" t="n">
-        <v>16.4656333778833</v>
+        <v>20.35064969921709</v>
       </c>
       <c r="P38" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Q38" t="n">
-        <v>21.88124036928013</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="R38" t="n">
-        <v>21.88124036928013</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="S38" t="n">
-        <v>21.88124036928013</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="T38" t="n">
-        <v>21.88124036928013</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="U38" t="n">
-        <v>16.35567461946192</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="V38" t="n">
-        <v>16.35567461946192</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="W38" t="n">
-        <v>16.35567461946192</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="X38" t="n">
-        <v>16.35567461946192</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.35567461946192</v>
+        <v>19.94963507523848</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I39" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J39" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K39" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L39" t="n">
-        <v>5.634419395089636</v>
+        <v>7.139408255135177</v>
       </c>
       <c r="M39" t="n">
-        <v>11.05002638648647</v>
+        <v>13.74502897717613</v>
       </c>
       <c r="N39" t="n">
-        <v>16.4656333778833</v>
+        <v>20.35064969921709</v>
       </c>
       <c r="O39" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="P39" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Q39" t="n">
-        <v>21.88124036928013</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="R39" t="n">
-        <v>21.88124036928013</v>
+        <v>14.01327069203914</v>
       </c>
       <c r="S39" t="n">
-        <v>17.01432205684025</v>
+        <v>14.01327069203914</v>
       </c>
       <c r="T39" t="n">
-        <v>11.48875630702203</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="U39" t="n">
-        <v>11.48875630702203</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="V39" t="n">
-        <v>5.963190557203818</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="W39" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="X39" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>17.01432205684025</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="C41" t="n">
-        <v>17.01432205684025</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="D41" t="n">
-        <v>17.01432205684025</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="E41" t="n">
-        <v>17.01432205684025</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="F41" t="n">
-        <v>17.01432205684025</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="G41" t="n">
-        <v>11.48875630702203</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="H41" t="n">
-        <v>5.963190557203818</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J41" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K41" t="n">
-        <v>0.4376248073856027</v>
+        <v>6.811781384592904</v>
       </c>
       <c r="L41" t="n">
-        <v>5.634419395089636</v>
+        <v>6.811781384592904</v>
       </c>
       <c r="M41" t="n">
-        <v>11.05002638648647</v>
+        <v>6.872514488588069</v>
       </c>
       <c r="N41" t="n">
-        <v>16.4656333778833</v>
+        <v>13.47813521062903</v>
       </c>
       <c r="O41" t="n">
-        <v>16.4656333778833</v>
+        <v>20.08375593266998</v>
       </c>
       <c r="P41" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Q41" t="n">
-        <v>17.01432205684025</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="R41" t="n">
-        <v>17.01432205684025</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="S41" t="n">
-        <v>17.01432205684025</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="T41" t="n">
-        <v>17.01432205684025</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="U41" t="n">
-        <v>17.01432205684025</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="V41" t="n">
-        <v>17.01432205684025</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="W41" t="n">
-        <v>17.01432205684025</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="X41" t="n">
-        <v>17.01432205684025</v>
+        <v>20.7530122715116</v>
       </c>
       <c r="Y41" t="n">
-        <v>17.01432205684025</v>
+        <v>14.01327069203914</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5.963190557203818</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I42" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J42" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K42" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L42" t="n">
-        <v>5.853231798782435</v>
+        <v>7.139408255135177</v>
       </c>
       <c r="M42" t="n">
-        <v>11.26883879017927</v>
+        <v>13.47813521062903</v>
       </c>
       <c r="N42" t="n">
-        <v>16.6844457815761</v>
+        <v>20.08375593266998</v>
       </c>
       <c r="O42" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="P42" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Q42" t="n">
-        <v>21.88124036928013</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="R42" t="n">
-        <v>21.88124036928013</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="S42" t="n">
-        <v>21.88124036928013</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="T42" t="n">
-        <v>21.88124036928013</v>
+        <v>14.01327069203914</v>
       </c>
       <c r="U42" t="n">
-        <v>21.88124036928013</v>
+        <v>14.01327069203914</v>
       </c>
       <c r="V42" t="n">
-        <v>21.88124036928013</v>
+        <v>14.01327069203914</v>
       </c>
       <c r="W42" t="n">
-        <v>21.88124036928013</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="X42" t="n">
-        <v>17.01432205684025</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="Y42" t="n">
-        <v>11.48875630702203</v>
+        <v>0.5337875330942188</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.35567461946192</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="C44" t="n">
-        <v>11.48875630702203</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="D44" t="n">
-        <v>5.963190557203818</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="E44" t="n">
-        <v>5.963190557203818</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="F44" t="n">
-        <v>5.963190557203818</v>
+        <v>13.20989349576602</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4376248073856027</v>
+        <v>6.470151916293557</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J44" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K44" t="n">
-        <v>5.853231798782435</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L44" t="n">
-        <v>5.853231798782435</v>
+        <v>7.139408255135177</v>
       </c>
       <c r="M44" t="n">
-        <v>11.26883879017927</v>
+        <v>13.74502897717613</v>
       </c>
       <c r="N44" t="n">
-        <v>16.6844457815761</v>
+        <v>20.35064969921709</v>
       </c>
       <c r="O44" t="n">
-        <v>16.6844457815761</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="P44" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Q44" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="R44" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="S44" t="n">
-        <v>16.35567461946192</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="T44" t="n">
-        <v>16.35567461946192</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="U44" t="n">
-        <v>16.35567461946192</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="V44" t="n">
-        <v>16.35567461946192</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="W44" t="n">
-        <v>16.35567461946192</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="X44" t="n">
-        <v>16.35567461946192</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.35567461946192</v>
+        <v>26.68937665471094</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5.304543119825483</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="C45" t="n">
-        <v>5.304543119825483</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4376248073856027</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4376248073856027</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="F45" t="n">
-        <v>0.4376248073856027</v>
+        <v>14.01327069203914</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4376248073856027</v>
+        <v>7.273529112566679</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I45" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J45" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K45" t="n">
-        <v>0.4376248073856027</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L45" t="n">
-        <v>5.853231798782435</v>
+        <v>7.139408255135177</v>
       </c>
       <c r="M45" t="n">
-        <v>11.26883879017927</v>
+        <v>13.74502897717613</v>
       </c>
       <c r="N45" t="n">
-        <v>16.4656333778833</v>
+        <v>20.35064969921709</v>
       </c>
       <c r="O45" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="P45" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="Q45" t="n">
-        <v>21.88124036928013</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="R45" t="n">
-        <v>16.35567461946192</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="S45" t="n">
-        <v>16.35567461946192</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="T45" t="n">
-        <v>16.35567461946192</v>
+        <v>26.68937665471094</v>
       </c>
       <c r="U45" t="n">
-        <v>16.35567461946192</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="V45" t="n">
-        <v>16.35567461946192</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="W45" t="n">
-        <v>16.35567461946192</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="X45" t="n">
-        <v>16.35567461946192</v>
+        <v>19.94963507523848</v>
       </c>
       <c r="Y45" t="n">
-        <v>10.8301088696437</v>
+        <v>19.94963507523848</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="C46" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="D46" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="E46" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="F46" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="G46" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="H46" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="I46" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="J46" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="K46" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="L46" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="M46" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="N46" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="O46" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="P46" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Q46" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="R46" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="S46" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="T46" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="U46" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="V46" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="W46" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="X46" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
       <c r="Y46" t="n">
-        <v>21.88124036928013</v>
+        <v>0.5337875330942188</v>
       </c>
     </row>
   </sheetData>
@@ -8461,13 +8461,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M8" t="n">
-        <v>74.04503350661622</v>
+        <v>82.01065825161351</v>
       </c>
       <c r="N8" t="n">
-        <v>68.42730627354024</v>
+        <v>76.52182315471589</v>
       </c>
       <c r="O8" t="n">
-        <v>84.31378269605858</v>
+        <v>91.95720545347766</v>
       </c>
       <c r="P8" t="n">
         <v>83.66766412458549</v>
@@ -8537,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>28.74009079028824</v>
+        <v>34.0102442534205</v>
       </c>
       <c r="M9" t="n">
-        <v>4.94295693345623</v>
+        <v>11.09297744785178</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>17.99414464209616</v>
+        <v>23.76911716839726</v>
       </c>
       <c r="P9" t="n">
-        <v>43.00209896284861</v>
+        <v>47.63702354577663</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -8692,22 +8692,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>78.79332417764658</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L11" t="n">
-        <v>43.23611964364983</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M11" t="n">
-        <v>1.324117587700869</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>14.53435905146836</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P11" t="n">
-        <v>63.37212681869443</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q11" t="n">
         <v>55.20189757157522</v>
@@ -8771,7 +8771,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>36.4846258250864</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.6882853354483984</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8929,22 +8929,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>78.79332417764658</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L14" t="n">
-        <v>43.23611964364983</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M14" t="n">
-        <v>1.324117587700869</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>14.53435905146836</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P14" t="n">
-        <v>63.37212681869443</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q14" t="n">
         <v>55.20189757157522</v>
@@ -9008,7 +9008,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>36.4846258250864</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.6882853354483984</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9166,22 +9166,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>78.79332417764658</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L17" t="n">
-        <v>43.23611964364983</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M17" t="n">
-        <v>1.324117587700869</v>
+        <v>0.141223971726788</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>14.53435905146836</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P17" t="n">
-        <v>63.37212681869443</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q17" t="n">
         <v>55.20189757157522</v>
@@ -9245,7 +9245,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>36.4846258250864</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.6882853354483984</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9403,22 +9403,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>78.79332417764658</v>
+        <v>77.93639933769612</v>
       </c>
       <c r="L20" t="n">
-        <v>43.23611964364983</v>
+        <v>42.17302860521357</v>
       </c>
       <c r="M20" t="n">
-        <v>1.324117587700869</v>
+        <v>0.1412239717268449</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>14.53435905146836</v>
+        <v>13.39931236355858</v>
       </c>
       <c r="P20" t="n">
-        <v>63.37212681869443</v>
+        <v>62.40339073079667</v>
       </c>
       <c r="Q20" t="n">
         <v>55.20189757157522</v>
@@ -9482,7 +9482,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>36.4846258250864</v>
+        <v>35.90259171246745</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.6882853354483984</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9640,22 +9640,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>78.79332417764658</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L23" t="n">
-        <v>43.23611964364983</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M23" t="n">
-        <v>6.794427680020902</v>
+        <v>6.813568135404523</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>19.78364651379566</v>
+        <v>19.80206686405736</v>
       </c>
       <c r="P23" t="n">
-        <v>68.84243691101443</v>
+        <v>69.07573489447435</v>
       </c>
       <c r="Q23" t="n">
         <v>55.20189757157522</v>
@@ -9719,7 +9719,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>36.4846258250864</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0.6882853354483984</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9877,22 +9877,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>78.79332417764658</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L26" t="n">
-        <v>48.70642973596986</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M26" t="n">
-        <v>6.794427680020902</v>
+        <v>0.2025705414188742</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>19.78364651379566</v>
+        <v>20.07165652723626</v>
       </c>
       <c r="P26" t="n">
-        <v>63.37212681869443</v>
+        <v>69.07573489447435</v>
       </c>
       <c r="Q26" t="n">
         <v>55.20189757157522</v>
@@ -9956,7 +9956,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>36.4846258250864</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0.6882853354483984</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10114,22 +10114,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>84.26363426996662</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L29" t="n">
-        <v>43.23611964364983</v>
+        <v>48.84537276889125</v>
       </c>
       <c r="M29" t="n">
-        <v>1.324117587700869</v>
+        <v>0.2025705414188742</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>19.78364651379566</v>
+        <v>13.39931236355852</v>
       </c>
       <c r="P29" t="n">
-        <v>68.84243691101443</v>
+        <v>69.07573489447435</v>
       </c>
       <c r="Q29" t="n">
         <v>55.20189757157522</v>
@@ -10193,7 +10193,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>36.4846258250864</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0.6882853354483984</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10351,22 +10351,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>78.79332417764658</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L32" t="n">
-        <v>48.48540710597714</v>
+        <v>48.84537276889125</v>
       </c>
       <c r="M32" t="n">
-        <v>1.324117587700869</v>
+        <v>6.813568135404523</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>20.00466914378836</v>
+        <v>13.46065893325061</v>
       </c>
       <c r="P32" t="n">
-        <v>68.84243691101443</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q32" t="n">
         <v>55.20189757157522</v>
@@ -10430,7 +10430,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>36.4846258250864</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0.6882853354483984</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10588,22 +10588,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>78.79332417764658</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L35" t="n">
-        <v>48.48540710597714</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M35" t="n">
-        <v>6.794427680020874</v>
+        <v>6.813568135404523</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>14.53435905146836</v>
+        <v>20.07165652723626</v>
       </c>
       <c r="P35" t="n">
-        <v>68.84243691101443</v>
+        <v>68.80614523129546</v>
       </c>
       <c r="Q35" t="n">
         <v>55.20189757157522</v>
@@ -10667,7 +10667,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>36.4846258250864</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0.6882853354483984</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10825,22 +10825,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>84.26363426996662</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L38" t="n">
-        <v>43.23611964364983</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M38" t="n">
-        <v>1.324117587700869</v>
+        <v>6.813568135404523</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>19.78364651379566</v>
+        <v>20.07165652723626</v>
       </c>
       <c r="P38" t="n">
-        <v>68.84243691101443</v>
+        <v>68.80614523129543</v>
       </c>
       <c r="Q38" t="n">
         <v>55.20189757157522</v>
@@ -10904,7 +10904,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>36.4846258250864</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0.6882853354483984</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11062,22 +11062,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>78.79332417764658</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>48.48540710597714</v>
+        <v>42.17302860521352</v>
       </c>
       <c r="M41" t="n">
-        <v>6.794427680020874</v>
+        <v>0.2025705414188742</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>14.53435905146836</v>
+        <v>20.07165652723626</v>
       </c>
       <c r="P41" t="n">
-        <v>68.84243691101443</v>
+        <v>69.07573489447435</v>
       </c>
       <c r="Q41" t="n">
         <v>55.20189757157522</v>
@@ -11141,7 +11141,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>36.4846258250864</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0.6882853354483984</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11299,22 +11299,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>84.26363426996662</v>
+        <v>77.93639933769609</v>
       </c>
       <c r="L44" t="n">
-        <v>43.23611964364983</v>
+        <v>48.84537276889125</v>
       </c>
       <c r="M44" t="n">
-        <v>6.794427680020902</v>
+        <v>6.813568135404523</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>14.53435905146836</v>
+        <v>19.80206686405736</v>
       </c>
       <c r="P44" t="n">
-        <v>68.62141428102173</v>
+        <v>62.40339073079662</v>
       </c>
       <c r="Q44" t="n">
         <v>55.20189757157522</v>
@@ -11378,7 +11378,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>36.4846258250864</v>
+        <v>35.90259171246743</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0.6882853354483984</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -23035,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>22.09335693785067</v>
+        <v>22.13872152603486</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23272,16 +23272,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>421.6792080783892</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H11" t="n">
-        <v>344.5252616120142</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I11" t="n">
-        <v>233.9558032629818</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J11" t="n">
-        <v>58.61963373020026</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.55221521736678</v>
+        <v>62.82473475935979</v>
       </c>
       <c r="R11" t="n">
-        <v>178.1648783760692</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S11" t="n">
-        <v>223.8425300091053</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T11" t="n">
-        <v>217.1489367886012</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7487244570701</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23351,16 +23351,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>160.7467135268865</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H12" t="n">
-        <v>135.1595984255204</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I12" t="n">
-        <v>107.7148981354977</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J12" t="n">
-        <v>56.11419941992698</v>
+        <v>55.77366116803449</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>19.58427313862643</v>
+        <v>19.12417261947326</v>
       </c>
       <c r="R12" t="n">
-        <v>137.7370424898955</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S12" t="n">
-        <v>203.0398178453067</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T12" t="n">
-        <v>229.0140477939432</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U12" t="n">
-        <v>249.63190625931</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23430,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.0094874176874</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H13" t="n">
-        <v>165.5781122917138</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I13" t="n">
-        <v>160.9723564724972</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J13" t="n">
-        <v>116.3802901373718</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K13" t="n">
-        <v>61.33572920648326</v>
+        <v>60.98464853068948</v>
       </c>
       <c r="L13" t="n">
-        <v>27.58094478367386</v>
+        <v>27.13168239150396</v>
       </c>
       <c r="M13" t="n">
-        <v>22.39412062630564</v>
+        <v>21.92043642499794</v>
       </c>
       <c r="N13" t="n">
-        <v>10.89024942892647</v>
+        <v>10.42782837918963</v>
       </c>
       <c r="O13" t="n">
-        <v>38.9384294574853</v>
+        <v>38.5113087730376</v>
       </c>
       <c r="P13" t="n">
-        <v>62.64925793831348</v>
+        <v>62.28378240539013</v>
       </c>
       <c r="Q13" t="n">
-        <v>132.8068400329947</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R13" t="n">
-        <v>210.941402476807</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S13" t="n">
-        <v>239.7727156918949</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T13" t="n">
-        <v>217.125727675216</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U13" t="n">
-        <v>291.2073130424149</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23509,16 +23509,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>421.6792080783892</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H14" t="n">
-        <v>344.5252616120142</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I14" t="n">
-        <v>233.9558032629818</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J14" t="n">
-        <v>58.61963373020026</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.55221521736678</v>
+        <v>62.82473475935979</v>
       </c>
       <c r="R14" t="n">
-        <v>178.1648783760692</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S14" t="n">
-        <v>223.8425300091053</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T14" t="n">
-        <v>217.1489367886012</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7487244570701</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23588,16 +23588,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>160.7467135268865</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H15" t="n">
-        <v>135.1595984255204</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I15" t="n">
-        <v>107.7148981354977</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J15" t="n">
-        <v>56.11419941992698</v>
+        <v>55.77366116803449</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>19.58427313862643</v>
+        <v>19.12417261947326</v>
       </c>
       <c r="R15" t="n">
-        <v>137.7370424898955</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S15" t="n">
-        <v>203.0398178453067</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T15" t="n">
-        <v>229.0140477939432</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U15" t="n">
-        <v>249.63190625931</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23667,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.0094874176874</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H16" t="n">
-        <v>165.5781122917138</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I16" t="n">
-        <v>160.9723564724972</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J16" t="n">
-        <v>116.3802901373718</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K16" t="n">
-        <v>61.33572920648326</v>
+        <v>60.98464853068948</v>
       </c>
       <c r="L16" t="n">
-        <v>27.58094478367386</v>
+        <v>27.13168239150396</v>
       </c>
       <c r="M16" t="n">
-        <v>22.39412062630564</v>
+        <v>21.92043642499794</v>
       </c>
       <c r="N16" t="n">
-        <v>10.89024942892647</v>
+        <v>10.42782837918963</v>
       </c>
       <c r="O16" t="n">
-        <v>38.9384294574853</v>
+        <v>38.5113087730376</v>
       </c>
       <c r="P16" t="n">
-        <v>62.64925793831348</v>
+        <v>62.28378240539013</v>
       </c>
       <c r="Q16" t="n">
-        <v>132.8068400329947</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R16" t="n">
-        <v>210.941402476807</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S16" t="n">
-        <v>239.7727156918949</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T16" t="n">
-        <v>217.125727675216</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U16" t="n">
-        <v>291.2073130424149</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23746,16 +23746,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>421.6792080783892</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H17" t="n">
-        <v>344.5252616120142</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I17" t="n">
-        <v>233.9558032629818</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J17" t="n">
-        <v>58.61963373020026</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.55221521736678</v>
+        <v>62.82473475935979</v>
       </c>
       <c r="R17" t="n">
-        <v>178.1648783760692</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S17" t="n">
-        <v>223.8425300091053</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T17" t="n">
-        <v>217.1489367886012</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7487244570701</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23825,16 +23825,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>160.7467135268865</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H18" t="n">
-        <v>135.1595984255204</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I18" t="n">
-        <v>107.7148981354977</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J18" t="n">
-        <v>56.11419941992698</v>
+        <v>55.77366116803449</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>19.58427313862643</v>
+        <v>19.12417261947326</v>
       </c>
       <c r="R18" t="n">
-        <v>137.7370424898955</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S18" t="n">
-        <v>203.0398178453067</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T18" t="n">
-        <v>229.0140477939432</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U18" t="n">
-        <v>249.63190625931</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23904,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.0094874176874</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H19" t="n">
-        <v>165.5781122917138</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I19" t="n">
-        <v>160.9723564724972</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J19" t="n">
-        <v>116.3802901373718</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K19" t="n">
-        <v>61.33572920648326</v>
+        <v>60.98464853068948</v>
       </c>
       <c r="L19" t="n">
-        <v>27.58094478367386</v>
+        <v>27.13168239150396</v>
       </c>
       <c r="M19" t="n">
-        <v>22.39412062630564</v>
+        <v>21.92043642499794</v>
       </c>
       <c r="N19" t="n">
-        <v>10.89024942892647</v>
+        <v>10.42782837918963</v>
       </c>
       <c r="O19" t="n">
-        <v>38.9384294574853</v>
+        <v>38.5113087730376</v>
       </c>
       <c r="P19" t="n">
-        <v>62.64925793831348</v>
+        <v>62.28378240539013</v>
       </c>
       <c r="Q19" t="n">
-        <v>132.8068400329947</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R19" t="n">
-        <v>210.941402476807</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S19" t="n">
-        <v>239.7727156918949</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T19" t="n">
-        <v>217.125727675216</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U19" t="n">
-        <v>291.2073130424149</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23983,16 +23983,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>421.6792080783892</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H20" t="n">
-        <v>344.5252616120142</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I20" t="n">
-        <v>233.9558032629818</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J20" t="n">
-        <v>58.61963373020026</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.55221521736678</v>
+        <v>62.82473475935984</v>
       </c>
       <c r="R20" t="n">
-        <v>178.1648783760692</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S20" t="n">
-        <v>223.8425300091053</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T20" t="n">
-        <v>217.1489367886012</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7487244570701</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24062,16 +24062,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>160.7467135268865</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H21" t="n">
-        <v>135.1595984255204</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I21" t="n">
-        <v>107.7148981354977</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J21" t="n">
-        <v>56.11419941992698</v>
+        <v>55.77366116803451</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>19.58427313862643</v>
+        <v>19.12417261947328</v>
       </c>
       <c r="R21" t="n">
-        <v>137.7370424898955</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S21" t="n">
-        <v>203.0398178453067</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T21" t="n">
-        <v>229.0140477939432</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U21" t="n">
-        <v>249.63190625931</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24141,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.0094874176874</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H22" t="n">
-        <v>165.5781122917138</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I22" t="n">
-        <v>160.9723564724972</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J22" t="n">
-        <v>116.3802901373718</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K22" t="n">
-        <v>61.33572920648326</v>
+        <v>60.9846485306895</v>
       </c>
       <c r="L22" t="n">
-        <v>27.58094478367386</v>
+        <v>27.13168239150396</v>
       </c>
       <c r="M22" t="n">
-        <v>22.39412062630564</v>
+        <v>21.92043642499797</v>
       </c>
       <c r="N22" t="n">
-        <v>10.89024942892647</v>
+        <v>10.42782837918966</v>
       </c>
       <c r="O22" t="n">
-        <v>38.9384294574853</v>
+        <v>38.51130877303761</v>
       </c>
       <c r="P22" t="n">
-        <v>62.64925793831348</v>
+        <v>62.28378240539014</v>
       </c>
       <c r="Q22" t="n">
-        <v>132.8068400329947</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R22" t="n">
-        <v>210.941402476807</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S22" t="n">
-        <v>239.7727156918949</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T22" t="n">
-        <v>217.125727675216</v>
+        <v>217.1128162575616</v>
       </c>
       <c r="U22" t="n">
-        <v>291.2073130424149</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>364.5563275970632</v>
+        <v>358.6793268576958</v>
       </c>
       <c r="C23" t="n">
-        <v>333.5971194742085</v>
+        <v>326.9247753105307</v>
       </c>
       <c r="D23" t="n">
         <v>319.1317556432476</v>
@@ -24220,16 +24220,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>421.6792080783892</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H23" t="n">
-        <v>339.0549515196942</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I23" t="n">
-        <v>233.9558032629818</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J23" t="n">
-        <v>58.61963373020026</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>58.08190512504675</v>
+        <v>62.82473475935979</v>
       </c>
       <c r="R23" t="n">
-        <v>178.1648783760692</v>
+        <v>171.069364258852</v>
       </c>
       <c r="S23" t="n">
-        <v>223.8425300091053</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T23" t="n">
-        <v>211.6786266962812</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U23" t="n">
-        <v>243.9304753277546</v>
+        <v>242.0758413628405</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>183.194508251719</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C24" t="n">
         <v>203.8424276152394</v>
@@ -24299,16 +24299,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>160.7467135268865</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H24" t="n">
-        <v>135.1595984255204</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I24" t="n">
-        <v>107.7148981354977</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J24" t="n">
-        <v>56.11419941992698</v>
+        <v>55.77366116803449</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,28 +24329,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>19.58427313862643</v>
+        <v>19.12417261947326</v>
       </c>
       <c r="R24" t="n">
-        <v>137.7370424898955</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S24" t="n">
-        <v>203.0398178453067</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T24" t="n">
-        <v>229.0140477939432</v>
+        <v>222.327175305049</v>
       </c>
       <c r="U24" t="n">
-        <v>249.63190625931</v>
+        <v>242.9593249630117</v>
       </c>
       <c r="V24" t="n">
-        <v>243.8296150878523</v>
+        <v>242.6275810164946</v>
       </c>
       <c r="W24" t="n">
-        <v>277.7789466706111</v>
+        <v>277.3722560235638</v>
       </c>
       <c r="X24" t="n">
-        <v>224.5627536186429</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y24" t="n">
         <v>242.8962664135933</v>
@@ -24378,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.0094874176874</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H25" t="n">
-        <v>165.5781122917138</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I25" t="n">
-        <v>160.9723564724972</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J25" t="n">
-        <v>116.3802901373718</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K25" t="n">
-        <v>61.33572920648326</v>
+        <v>60.98464853068948</v>
       </c>
       <c r="L25" t="n">
-        <v>27.58094478367386</v>
+        <v>27.13168239150396</v>
       </c>
       <c r="M25" t="n">
-        <v>22.39412062630564</v>
+        <v>21.92043642499794</v>
       </c>
       <c r="N25" t="n">
-        <v>10.89024942892647</v>
+        <v>10.42782837918963</v>
       </c>
       <c r="O25" t="n">
-        <v>38.9384294574853</v>
+        <v>38.5113087730376</v>
       </c>
       <c r="P25" t="n">
-        <v>62.64925793831348</v>
+        <v>62.28378240539013</v>
       </c>
       <c r="Q25" t="n">
-        <v>132.8068400329947</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R25" t="n">
-        <v>210.941402476807</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S25" t="n">
-        <v>239.7727156918949</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T25" t="n">
-        <v>217.125727675216</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U25" t="n">
-        <v>291.2073130424149</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24445,28 +24445,28 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C26" t="n">
-        <v>333.5971194742085</v>
+        <v>327.7201187348411</v>
       </c>
       <c r="D26" t="n">
-        <v>313.6614455509276</v>
+        <v>312.4594114795699</v>
       </c>
       <c r="E26" t="n">
-        <v>359.9585549362873</v>
+        <v>353.2862107726096</v>
       </c>
       <c r="F26" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>421.6792080783892</v>
+        <v>415.0001272828122</v>
       </c>
       <c r="H26" t="n">
-        <v>344.5252616120142</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I26" t="n">
-        <v>228.4854931706618</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J26" t="n">
-        <v>58.61963373020026</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,31 +24487,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>63.55221521736678</v>
+        <v>62.82473475935979</v>
       </c>
       <c r="R26" t="n">
-        <v>178.1648783760692</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S26" t="n">
-        <v>223.8425300091053</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T26" t="n">
-        <v>217.1489367886012</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7487244570701</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W26" t="n">
-        <v>319.9214153869734</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X26" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y26" t="n">
-        <v>373.1107272658667</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="27">
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>182.5424472887144</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C27" t="n">
-        <v>198.3721175229194</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D27" t="n">
-        <v>166.6286322871922</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E27" t="n">
         <v>187.4605452976028</v>
@@ -24536,16 +24536,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>160.7467135268865</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H27" t="n">
-        <v>135.1595984255204</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I27" t="n">
-        <v>102.8966490061823</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J27" t="n">
-        <v>56.11419941992698</v>
+        <v>55.77366116803449</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,25 +24566,25 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>19.58427313862643</v>
+        <v>19.12417261947326</v>
       </c>
       <c r="R27" t="n">
-        <v>137.7370424898955</v>
+        <v>130.8409083678226</v>
       </c>
       <c r="S27" t="n">
-        <v>203.0398178453067</v>
+        <v>196.3005232384385</v>
       </c>
       <c r="T27" t="n">
-        <v>229.0140477939432</v>
+        <v>222.327175305049</v>
       </c>
       <c r="U27" t="n">
-        <v>249.63190625931</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W27" t="n">
-        <v>283.2492567629311</v>
+        <v>277.3722560235638</v>
       </c>
       <c r="X27" t="n">
         <v>230.033063710963</v>
@@ -24615,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.0094874176874</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H28" t="n">
-        <v>165.5781122917138</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I28" t="n">
-        <v>160.9723564724972</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J28" t="n">
-        <v>116.3802901373718</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K28" t="n">
-        <v>61.33572920648326</v>
+        <v>60.98464853068948</v>
       </c>
       <c r="L28" t="n">
-        <v>27.58094478367386</v>
+        <v>27.13168239150396</v>
       </c>
       <c r="M28" t="n">
-        <v>22.39412062630564</v>
+        <v>21.92043642499794</v>
       </c>
       <c r="N28" t="n">
-        <v>10.89024942892647</v>
+        <v>10.42782837918963</v>
       </c>
       <c r="O28" t="n">
-        <v>38.9384294574853</v>
+        <v>38.5113087730376</v>
       </c>
       <c r="P28" t="n">
-        <v>62.64925793831348</v>
+        <v>62.28378240539013</v>
       </c>
       <c r="Q28" t="n">
-        <v>132.8068400329947</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R28" t="n">
-        <v>210.941402476807</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S28" t="n">
-        <v>239.7727156918949</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T28" t="n">
-        <v>217.125727675216</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U28" t="n">
-        <v>291.2073130424149</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>364.5563275970632</v>
+        <v>357.8839834333854</v>
       </c>
       <c r="C29" t="n">
         <v>333.5971194742085</v>
@@ -24691,19 +24691,19 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F29" t="n">
-        <v>399.146417573369</v>
+        <v>393.2694168340017</v>
       </c>
       <c r="G29" t="n">
-        <v>421.6792080783892</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H29" t="n">
-        <v>344.5252616120142</v>
+        <v>337.7839259168985</v>
       </c>
       <c r="I29" t="n">
-        <v>233.9558032629818</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J29" t="n">
-        <v>58.61963373020026</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,25 +24724,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>63.55221521736678</v>
+        <v>62.82473475935979</v>
       </c>
       <c r="R29" t="n">
-        <v>178.1648783760692</v>
+        <v>171.069364258852</v>
       </c>
       <c r="S29" t="n">
-        <v>223.8425300091053</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T29" t="n">
-        <v>211.6786266962812</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U29" t="n">
-        <v>243.9304753277546</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V29" t="n">
-        <v>307.8341319087031</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W29" t="n">
-        <v>319.9214153869734</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X29" t="n">
         <v>348.8168793035129</v>
@@ -24764,7 +24764,7 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D30" t="n">
-        <v>167.2806932501967</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E30" t="n">
         <v>187.4605452976028</v>
@@ -24773,16 +24773,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>160.7467135268865</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H30" t="n">
-        <v>135.1595984255204</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I30" t="n">
-        <v>107.7148981354977</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J30" t="n">
-        <v>56.11419941992698</v>
+        <v>55.77366116803449</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,22 +24803,22 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>19.58427313862643</v>
+        <v>19.12417261947326</v>
       </c>
       <c r="R30" t="n">
-        <v>137.7370424898955</v>
+        <v>130.8409083678226</v>
       </c>
       <c r="S30" t="n">
-        <v>197.5695077529866</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T30" t="n">
-        <v>229.0140477939432</v>
+        <v>222.327175305049</v>
       </c>
       <c r="U30" t="n">
-        <v>244.1615961669899</v>
+        <v>242.9593249630117</v>
       </c>
       <c r="V30" t="n">
-        <v>243.8296150878523</v>
+        <v>243.422924440805</v>
       </c>
       <c r="W30" t="n">
         <v>283.2492567629311</v>
@@ -24852,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.0094874176874</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H31" t="n">
-        <v>165.5781122917138</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I31" t="n">
-        <v>160.9723564724972</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J31" t="n">
-        <v>116.3802901373718</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K31" t="n">
-        <v>61.33572920648326</v>
+        <v>60.98464853068948</v>
       </c>
       <c r="L31" t="n">
-        <v>27.58094478367386</v>
+        <v>27.13168239150396</v>
       </c>
       <c r="M31" t="n">
-        <v>22.39412062630564</v>
+        <v>21.92043642499794</v>
       </c>
       <c r="N31" t="n">
-        <v>10.89024942892647</v>
+        <v>10.42782837918963</v>
       </c>
       <c r="O31" t="n">
-        <v>38.9384294574853</v>
+        <v>38.5113087730376</v>
       </c>
       <c r="P31" t="n">
-        <v>62.64925793831348</v>
+        <v>62.28378240539013</v>
       </c>
       <c r="Q31" t="n">
-        <v>132.8068400329947</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R31" t="n">
-        <v>210.941402476807</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S31" t="n">
-        <v>239.7727156918949</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T31" t="n">
-        <v>217.125727675216</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U31" t="n">
-        <v>291.2073130424149</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24922,7 +24922,7 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D32" t="n">
-        <v>314.3135065139322</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E32" t="n">
         <v>359.9585549362873</v>
@@ -24931,16 +24931,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>421.6792080783892</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H32" t="n">
-        <v>339.0549515196942</v>
+        <v>337.7839259168985</v>
       </c>
       <c r="I32" t="n">
-        <v>233.9558032629818</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J32" t="n">
-        <v>58.61963373020026</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,22 +24961,22 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>63.55221521736678</v>
+        <v>62.82473475935979</v>
       </c>
       <c r="R32" t="n">
-        <v>178.1648783760692</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S32" t="n">
-        <v>218.3722199167853</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T32" t="n">
-        <v>211.6786266962812</v>
+        <v>210.4471030187846</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7487244570701</v>
+        <v>242.0758413628405</v>
       </c>
       <c r="V32" t="n">
-        <v>313.3044420010231</v>
+        <v>307.4274412616558</v>
       </c>
       <c r="W32" t="n">
         <v>325.3917254792934</v>
@@ -25010,16 +25010,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>160.7467135268865</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H33" t="n">
-        <v>135.1595984255204</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2445880431777</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J33" t="n">
-        <v>56.11419941992698</v>
+        <v>55.77366116803449</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,28 +25040,28 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>19.58427313862643</v>
+        <v>19.12417261947326</v>
       </c>
       <c r="R33" t="n">
-        <v>137.7370424898955</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S33" t="n">
-        <v>203.0398178453067</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T33" t="n">
-        <v>229.0140477939432</v>
+        <v>222.327175305049</v>
       </c>
       <c r="U33" t="n">
-        <v>244.1615961669899</v>
+        <v>242.9593249630117</v>
       </c>
       <c r="V33" t="n">
-        <v>249.2999251801724</v>
+        <v>242.6275810164946</v>
       </c>
       <c r="W33" t="n">
-        <v>277.7789466706111</v>
+        <v>277.3722560235638</v>
       </c>
       <c r="X33" t="n">
-        <v>225.2148145816475</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y33" t="n">
         <v>242.8962664135933</v>
@@ -25089,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.0094874176874</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H34" t="n">
-        <v>165.5781122917138</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I34" t="n">
-        <v>160.9723564724972</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J34" t="n">
-        <v>116.3802901373718</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K34" t="n">
-        <v>61.33572920648326</v>
+        <v>60.98464853068948</v>
       </c>
       <c r="L34" t="n">
-        <v>27.58094478367386</v>
+        <v>27.13168239150396</v>
       </c>
       <c r="M34" t="n">
-        <v>22.39412062630564</v>
+        <v>21.92043642499794</v>
       </c>
       <c r="N34" t="n">
-        <v>10.89024942892647</v>
+        <v>10.42782837918963</v>
       </c>
       <c r="O34" t="n">
-        <v>38.9384294574853</v>
+        <v>38.5113087730376</v>
       </c>
       <c r="P34" t="n">
-        <v>62.64925793831348</v>
+        <v>62.28378240539013</v>
       </c>
       <c r="Q34" t="n">
-        <v>132.8068400329947</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R34" t="n">
-        <v>210.941402476807</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S34" t="n">
-        <v>239.7727156918949</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T34" t="n">
-        <v>217.125727675216</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U34" t="n">
-        <v>291.2073130424149</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25156,28 +25156,28 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C35" t="n">
-        <v>328.1268093818884</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D35" t="n">
         <v>319.1317556432476</v>
       </c>
       <c r="E35" t="n">
-        <v>354.4882448439673</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F35" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>421.6792080783892</v>
+        <v>415.0001272828122</v>
       </c>
       <c r="H35" t="n">
-        <v>344.5252616120142</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I35" t="n">
-        <v>233.9558032629818</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J35" t="n">
-        <v>58.61963373020026</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,22 +25198,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>63.55221521736678</v>
+        <v>62.82473475935979</v>
       </c>
       <c r="R35" t="n">
-        <v>172.6945682837491</v>
+        <v>171.069364258852</v>
       </c>
       <c r="S35" t="n">
-        <v>223.8425300091053</v>
+        <v>217.0166748460241</v>
       </c>
       <c r="T35" t="n">
-        <v>217.1489367886012</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7487244570701</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V35" t="n">
-        <v>313.3044420010231</v>
+        <v>307.4274412616558</v>
       </c>
       <c r="W35" t="n">
         <v>325.3917254792934</v>
@@ -25222,7 +25222,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y35" t="n">
-        <v>373.1107272658667</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="36">
@@ -25232,31 +25232,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>183.194508251719</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C36" t="n">
         <v>203.8424276152394</v>
       </c>
       <c r="D36" t="n">
-        <v>172.0989423795122</v>
+        <v>165.4265982158345</v>
       </c>
       <c r="E36" t="n">
-        <v>187.4605452976028</v>
+        <v>180.7882011339251</v>
       </c>
       <c r="F36" t="n">
-        <v>173.9843481253239</v>
+        <v>168.1073473859566</v>
       </c>
       <c r="G36" t="n">
-        <v>160.7467135268865</v>
+        <v>154.070764947377</v>
       </c>
       <c r="H36" t="n">
-        <v>135.1595984255204</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I36" t="n">
-        <v>107.7148981354977</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J36" t="n">
-        <v>56.11419941992698</v>
+        <v>55.77366116803449</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,31 +25277,31 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>19.58427313862643</v>
+        <v>19.12417261947326</v>
       </c>
       <c r="R36" t="n">
-        <v>132.2667323975755</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S36" t="n">
-        <v>203.0398178453067</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T36" t="n">
-        <v>229.0140477939432</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U36" t="n">
-        <v>249.63190625931</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W36" t="n">
-        <v>277.7789466706111</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X36" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y36" t="n">
-        <v>237.4259563212733</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="37">
@@ -25326,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.0094874176874</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H37" t="n">
-        <v>165.5781122917138</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I37" t="n">
-        <v>160.9723564724972</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J37" t="n">
-        <v>116.3802901373718</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K37" t="n">
-        <v>61.33572920648326</v>
+        <v>60.98464853068948</v>
       </c>
       <c r="L37" t="n">
-        <v>27.58094478367386</v>
+        <v>27.13168239150396</v>
       </c>
       <c r="M37" t="n">
-        <v>22.39412062630564</v>
+        <v>21.92043642499794</v>
       </c>
       <c r="N37" t="n">
-        <v>10.89024942892647</v>
+        <v>10.42782837918963</v>
       </c>
       <c r="O37" t="n">
-        <v>38.9384294574853</v>
+        <v>38.5113087730376</v>
       </c>
       <c r="P37" t="n">
-        <v>62.64925793831348</v>
+        <v>62.28378240539013</v>
       </c>
       <c r="Q37" t="n">
-        <v>132.8068400329947</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R37" t="n">
-        <v>210.941402476807</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S37" t="n">
-        <v>239.7727156918949</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T37" t="n">
-        <v>217.125727675216</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U37" t="n">
-        <v>291.2073130424149</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25393,28 +25393,28 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C38" t="n">
-        <v>333.5971194742085</v>
+        <v>326.9247753105307</v>
       </c>
       <c r="D38" t="n">
-        <v>319.1317556432476</v>
+        <v>312.4594114795699</v>
       </c>
       <c r="E38" t="n">
-        <v>359.9585549362873</v>
+        <v>354.08155419692</v>
       </c>
       <c r="F38" t="n">
-        <v>394.3281684440536</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>416.2088979860692</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H38" t="n">
-        <v>339.0549515196942</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I38" t="n">
-        <v>233.9558032629818</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J38" t="n">
-        <v>58.61963373020026</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.55221521736678</v>
+        <v>56.15239059568205</v>
       </c>
       <c r="R38" t="n">
-        <v>178.1648783760692</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S38" t="n">
-        <v>223.8425300091053</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T38" t="n">
-        <v>217.1489367886012</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U38" t="n">
-        <v>243.2784143647501</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25484,16 +25484,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>160.7467135268865</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H39" t="n">
-        <v>135.1595984255204</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I39" t="n">
-        <v>107.7148981354977</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J39" t="n">
-        <v>56.11419941992698</v>
+        <v>55.77366116803449</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,25 +25514,25 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>19.58427313862643</v>
+        <v>12.45182845579552</v>
       </c>
       <c r="R39" t="n">
-        <v>137.7370424898955</v>
+        <v>131.636251792133</v>
       </c>
       <c r="S39" t="n">
-        <v>198.2215687159912</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T39" t="n">
-        <v>223.5437377016232</v>
+        <v>222.327175305049</v>
       </c>
       <c r="U39" t="n">
-        <v>249.63190625931</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V39" t="n">
-        <v>243.8296150878523</v>
+        <v>242.6275810164946</v>
       </c>
       <c r="W39" t="n">
-        <v>277.7789466706111</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X39" t="n">
         <v>230.033063710963</v>
@@ -25563,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.0094874176874</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H40" t="n">
-        <v>165.5781122917138</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I40" t="n">
-        <v>160.9723564724972</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J40" t="n">
-        <v>116.3802901373718</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K40" t="n">
-        <v>61.33572920648326</v>
+        <v>60.98464853068948</v>
       </c>
       <c r="L40" t="n">
-        <v>27.58094478367386</v>
+        <v>27.13168239150396</v>
       </c>
       <c r="M40" t="n">
-        <v>22.39412062630564</v>
+        <v>21.92043642499794</v>
       </c>
       <c r="N40" t="n">
-        <v>10.89024942892647</v>
+        <v>10.42782837918963</v>
       </c>
       <c r="O40" t="n">
-        <v>38.9384294574853</v>
+        <v>38.5113087730376</v>
       </c>
       <c r="P40" t="n">
-        <v>62.64925793831348</v>
+        <v>62.28378240539013</v>
       </c>
       <c r="Q40" t="n">
-        <v>132.8068400329947</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R40" t="n">
-        <v>210.941402476807</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S40" t="n">
-        <v>239.7727156918949</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T40" t="n">
-        <v>217.125727675216</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U40" t="n">
-        <v>291.2073130424149</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>364.5563275970632</v>
+        <v>357.8839834333854</v>
       </c>
       <c r="C41" t="n">
         <v>333.5971194742085</v>
@@ -25642,16 +25642,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>416.2088979860692</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H41" t="n">
-        <v>339.0549515196942</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I41" t="n">
-        <v>228.4854931706618</v>
+        <v>227.0237450980094</v>
       </c>
       <c r="J41" t="n">
-        <v>58.61963373020026</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.7339660880513</v>
+        <v>62.82473475935979</v>
       </c>
       <c r="R41" t="n">
-        <v>178.1648783760692</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S41" t="n">
-        <v>223.8425300091053</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T41" t="n">
-        <v>217.1489367886012</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7487244570701</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25693,10 +25693,10 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X41" t="n">
-        <v>348.8168793035129</v>
+        <v>342.9398785641455</v>
       </c>
       <c r="Y41" t="n">
-        <v>377.9289763951821</v>
+        <v>371.2566322315044</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>182.5424472887144</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C42" t="n">
-        <v>198.3721175229194</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D42" t="n">
         <v>172.0989423795122</v>
@@ -25721,16 +25721,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.7467135268865</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H42" t="n">
-        <v>135.1595984255204</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I42" t="n">
-        <v>107.7148981354977</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J42" t="n">
-        <v>56.11419941992698</v>
+        <v>55.77366116803449</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,31 +25751,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>19.58427313862643</v>
+        <v>12.45182845579552</v>
       </c>
       <c r="R42" t="n">
-        <v>137.7370424898955</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S42" t="n">
-        <v>203.0398178453067</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T42" t="n">
-        <v>229.0140477939432</v>
+        <v>223.1225187293594</v>
       </c>
       <c r="U42" t="n">
-        <v>249.63190625931</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W42" t="n">
-        <v>283.2492567629311</v>
+        <v>276.5769125992534</v>
       </c>
       <c r="X42" t="n">
-        <v>225.2148145816475</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y42" t="n">
-        <v>237.4259563212733</v>
+        <v>236.2239222499156</v>
       </c>
     </row>
     <row r="43">
@@ -25800,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.0094874176874</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H43" t="n">
-        <v>165.5781122917138</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I43" t="n">
-        <v>160.9723564724972</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J43" t="n">
-        <v>116.3802901373718</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K43" t="n">
-        <v>61.33572920648326</v>
+        <v>60.98464853068948</v>
       </c>
       <c r="L43" t="n">
-        <v>27.58094478367386</v>
+        <v>27.13168239150396</v>
       </c>
       <c r="M43" t="n">
-        <v>22.39412062630564</v>
+        <v>21.92043642499794</v>
       </c>
       <c r="N43" t="n">
-        <v>10.89024942892647</v>
+        <v>10.42782837918963</v>
       </c>
       <c r="O43" t="n">
-        <v>38.9384294574853</v>
+        <v>38.5113087730376</v>
       </c>
       <c r="P43" t="n">
-        <v>62.64925793831348</v>
+        <v>62.28378240539013</v>
       </c>
       <c r="Q43" t="n">
-        <v>132.8068400329947</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R43" t="n">
-        <v>210.941402476807</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S43" t="n">
-        <v>239.7727156918949</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T43" t="n">
-        <v>217.125727675216</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U43" t="n">
-        <v>291.2073130424149</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25864,31 +25864,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>364.5563275970632</v>
+        <v>357.8839834333854</v>
       </c>
       <c r="C44" t="n">
-        <v>328.778870344893</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D44" t="n">
-        <v>313.6614455509276</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E44" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F44" t="n">
-        <v>399.146417573369</v>
+        <v>392.4740734096913</v>
       </c>
       <c r="G44" t="n">
-        <v>416.2088979860692</v>
+        <v>415.0001272828122</v>
       </c>
       <c r="H44" t="n">
-        <v>344.5252616120142</v>
+        <v>338.5792693412089</v>
       </c>
       <c r="I44" t="n">
-        <v>233.9558032629818</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J44" t="n">
-        <v>58.61963373020026</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>63.55221521736678</v>
+        <v>62.82473475935979</v>
       </c>
       <c r="R44" t="n">
-        <v>178.1648783760692</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S44" t="n">
-        <v>218.3722199167853</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T44" t="n">
-        <v>217.1489367886012</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7487244570701</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25943,31 +25943,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>182.5424472887144</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C45" t="n">
         <v>203.8424276152394</v>
       </c>
       <c r="D45" t="n">
-        <v>167.2806932501967</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E45" t="n">
         <v>187.4605452976028</v>
       </c>
       <c r="F45" t="n">
-        <v>173.9843481253239</v>
+        <v>168.1073473859566</v>
       </c>
       <c r="G45" t="n">
-        <v>160.7467135268865</v>
+        <v>154.070764947377</v>
       </c>
       <c r="H45" t="n">
-        <v>135.1595984255204</v>
+        <v>128.4524431931519</v>
       </c>
       <c r="I45" t="n">
-        <v>107.7148981354977</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J45" t="n">
-        <v>56.11419941992698</v>
+        <v>55.77366116803449</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>19.58427313862643</v>
+        <v>19.12417261947326</v>
       </c>
       <c r="R45" t="n">
-        <v>132.2667323975755</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S45" t="n">
-        <v>203.0398178453067</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T45" t="n">
-        <v>229.0140477939432</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U45" t="n">
-        <v>249.63190625931</v>
+        <v>242.9593249630117</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26012,7 +26012,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y45" t="n">
-        <v>237.4259563212733</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="46">
@@ -26037,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.0094874176874</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H46" t="n">
-        <v>165.5781122917138</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I46" t="n">
-        <v>160.9723564724972</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J46" t="n">
-        <v>116.3802901373718</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K46" t="n">
-        <v>61.33572920648326</v>
+        <v>60.98464853068948</v>
       </c>
       <c r="L46" t="n">
-        <v>27.58094478367386</v>
+        <v>27.13168239150396</v>
       </c>
       <c r="M46" t="n">
-        <v>22.39412062630564</v>
+        <v>21.92043642499794</v>
       </c>
       <c r="N46" t="n">
-        <v>10.89024942892647</v>
+        <v>10.42782837918963</v>
       </c>
       <c r="O46" t="n">
-        <v>38.9384294574853</v>
+        <v>38.5113087730376</v>
       </c>
       <c r="P46" t="n">
-        <v>62.64925793831348</v>
+        <v>62.28378240539013</v>
       </c>
       <c r="Q46" t="n">
-        <v>132.8068400329947</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R46" t="n">
-        <v>210.941402476807</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S46" t="n">
-        <v>239.7727156918949</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T46" t="n">
-        <v>217.125727675216</v>
+        <v>217.1128162575615</v>
       </c>
       <c r="U46" t="n">
-        <v>291.2073130424149</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1127159.331863576</v>
+        <v>1128561.37855868</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>386667.7598348169</v>
+        <v>386792.2193529934</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>386667.7598348169</v>
+        <v>386792.2193529934</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>386667.7598348169</v>
+        <v>386792.2193529934</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>386667.7598348169</v>
+        <v>386792.2193529934</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>390290.5720298666</v>
+        <v>391211.1004397671</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>390290.5720298666</v>
+        <v>391211.1004397671</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>390290.5720298667</v>
+        <v>391211.1004397671</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>390290.5720298665</v>
+        <v>391211.1004397671</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>390290.5720298666</v>
+        <v>391211.1004397671</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>390290.5720298666</v>
+        <v>391211.1004397671</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>390290.5720298666</v>
+        <v>391211.1004397671</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>390290.5720298666</v>
+        <v>391211.1004397671</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>570622.5290386392</v>
       </c>
       <c r="D2" t="n">
-        <v>570628.0930589685</v>
+        <v>570625.9264462371</v>
       </c>
       <c r="E2" t="n">
-        <v>191953.7042344512</v>
+        <v>192140.8085698399</v>
       </c>
       <c r="F2" t="n">
-        <v>191953.7042344512</v>
+        <v>192140.8085698398</v>
       </c>
       <c r="G2" t="n">
-        <v>191953.7042344512</v>
+        <v>192140.8085698398</v>
       </c>
       <c r="H2" t="n">
-        <v>191953.7042344512</v>
+        <v>192140.8085698399</v>
       </c>
       <c r="I2" t="n">
-        <v>193507.6801669905</v>
+        <v>194036.2518023052</v>
       </c>
       <c r="J2" t="n">
-        <v>193507.6801669905</v>
+        <v>194036.2518023051</v>
       </c>
       <c r="K2" t="n">
-        <v>193507.6801669905</v>
+        <v>194036.2518023051</v>
       </c>
       <c r="L2" t="n">
-        <v>193507.6801669905</v>
+        <v>194036.2518023052</v>
       </c>
       <c r="M2" t="n">
-        <v>193507.6801669905</v>
+        <v>194036.2518023052</v>
       </c>
       <c r="N2" t="n">
-        <v>193507.6801669906</v>
+        <v>194036.2518023052</v>
       </c>
       <c r="O2" t="n">
-        <v>193507.6801669905</v>
+        <v>194036.2518023051</v>
       </c>
       <c r="P2" t="n">
-        <v>193507.6801669905</v>
+        <v>194036.2518023052</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>31096.06813368603</v>
       </c>
       <c r="D3" t="n">
-        <v>24818.25471997845</v>
+        <v>15154.10119921599</v>
       </c>
       <c r="E3" t="n">
-        <v>82766.19848931015</v>
+        <v>93178.44477333011</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1454.670330059835</v>
+        <v>1774.316432349347</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>429243.3084295139</v>
       </c>
       <c r="C4" t="n">
-        <v>417860.3230835526</v>
+        <v>417860.3230835525</v>
       </c>
       <c r="D4" t="n">
-        <v>408635.301262275</v>
+        <v>412216.6728922711</v>
       </c>
       <c r="E4" t="n">
-        <v>18756.49338545218</v>
+        <v>18522.33626080044</v>
       </c>
       <c r="F4" t="n">
-        <v>18756.49338545218</v>
+        <v>18522.33626080044</v>
       </c>
       <c r="G4" t="n">
-        <v>18756.49338545218</v>
+        <v>18522.33626080044</v>
       </c>
       <c r="H4" t="n">
-        <v>18756.49338545218</v>
+        <v>18522.33626080045</v>
       </c>
       <c r="I4" t="n">
-        <v>19404.81552964777</v>
+        <v>19313.1193063685</v>
       </c>
       <c r="J4" t="n">
-        <v>19404.81552964777</v>
+        <v>19313.1193063685</v>
       </c>
       <c r="K4" t="n">
-        <v>19404.81552964777</v>
+        <v>19313.1193063685</v>
       </c>
       <c r="L4" t="n">
-        <v>19404.81552964777</v>
+        <v>19313.1193063685</v>
       </c>
       <c r="M4" t="n">
-        <v>19404.81552964777</v>
+        <v>19313.1193063685</v>
       </c>
       <c r="N4" t="n">
-        <v>19404.81552964777</v>
+        <v>19313.1193063685</v>
       </c>
       <c r="O4" t="n">
-        <v>19404.81552964777</v>
+        <v>19313.1193063685</v>
       </c>
       <c r="P4" t="n">
-        <v>19404.81552964777</v>
+        <v>19313.1193063685</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>41112.97456555201</v>
       </c>
       <c r="D5" t="n">
-        <v>41744.72270709982</v>
+        <v>41498.721886524</v>
       </c>
       <c r="E5" t="n">
-        <v>10362.94843474456</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="F5" t="n">
-        <v>10362.94843474456</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="G5" t="n">
-        <v>10362.94843474456</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="H5" t="n">
-        <v>10362.94843474456</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="I5" t="n">
-        <v>10695.54328835762</v>
+        <v>10805.15803052766</v>
       </c>
       <c r="J5" t="n">
-        <v>10695.54328835762</v>
+        <v>10805.15803052766</v>
       </c>
       <c r="K5" t="n">
-        <v>10695.54328835762</v>
+        <v>10805.15803052766</v>
       </c>
       <c r="L5" t="n">
-        <v>10695.54328835762</v>
+        <v>10805.15803052766</v>
       </c>
       <c r="M5" t="n">
-        <v>10695.54328835762</v>
+        <v>10805.15803052766</v>
       </c>
       <c r="N5" t="n">
-        <v>10695.54328835762</v>
+        <v>10805.15803052766</v>
       </c>
       <c r="O5" t="n">
-        <v>10695.54328835762</v>
+        <v>10805.15803052766</v>
       </c>
       <c r="P5" t="n">
-        <v>10695.54328835762</v>
+        <v>10805.15803052766</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-196961.282296718</v>
+        <v>-197005.7531025058</v>
       </c>
       <c r="C6" t="n">
-        <v>80553.16325584851</v>
+        <v>80508.96564136182</v>
       </c>
       <c r="D6" t="n">
-        <v>95429.81436961528</v>
+        <v>101712.3744123893</v>
       </c>
       <c r="E6" t="n">
-        <v>80068.06392494429</v>
+        <v>54226.27872964657</v>
       </c>
       <c r="F6" t="n">
-        <v>162834.2624142544</v>
+        <v>147404.7235029766</v>
       </c>
       <c r="G6" t="n">
-        <v>162834.2624142544</v>
+        <v>147404.7235029766</v>
       </c>
       <c r="H6" t="n">
-        <v>162834.2624142544</v>
+        <v>147404.7235029767</v>
       </c>
       <c r="I6" t="n">
-        <v>161952.6510189253</v>
+        <v>146408.3655337257</v>
       </c>
       <c r="J6" t="n">
-        <v>163407.3213489851</v>
+        <v>148182.681966075</v>
       </c>
       <c r="K6" t="n">
-        <v>163407.3213489851</v>
+        <v>148182.681966075</v>
       </c>
       <c r="L6" t="n">
-        <v>163407.3213489851</v>
+        <v>148182.681966075</v>
       </c>
       <c r="M6" t="n">
-        <v>163407.3213489851</v>
+        <v>148182.681966075</v>
       </c>
       <c r="N6" t="n">
-        <v>163407.3213489852</v>
+        <v>148182.681966075</v>
       </c>
       <c r="O6" t="n">
-        <v>163407.3213489851</v>
+        <v>148182.681966075</v>
       </c>
       <c r="P6" t="n">
-        <v>163407.3213489851</v>
+        <v>148182.6819660751</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>343.3658057592666</v>
       </c>
       <c r="D3" t="n">
-        <v>372.3450783073314</v>
+        <v>361.0606369965139</v>
       </c>
       <c r="E3" t="n">
-        <v>475.3646070983742</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="F3" t="n">
-        <v>475.3646070983742</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="G3" t="n">
-        <v>475.3646070983742</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="H3" t="n">
-        <v>475.3646070983742</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="I3" t="n">
-        <v>475.3646070983742</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="J3" t="n">
-        <v>475.3646070983742</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="K3" t="n">
-        <v>475.3646070983742</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="L3" t="n">
-        <v>475.3646070983742</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="M3" t="n">
-        <v>475.3646070983742</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="N3" t="n">
-        <v>475.3646070983742</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="O3" t="n">
-        <v>475.3646070983742</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="P3" t="n">
-        <v>475.3646070983742</v>
+        <v>477.0403442833053</v>
       </c>
     </row>
     <row r="4">
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="J4" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="K4" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="L4" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="M4" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="N4" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="O4" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="P4" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>34.14891262449021</v>
       </c>
       <c r="D3" t="n">
-        <v>28.9792725480649</v>
+        <v>17.6948312372474</v>
       </c>
       <c r="E3" t="n">
-        <v>103.0195287910428</v>
+        <v>115.9797072867914</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27870,19 +27870,19 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>348.766663618974</v>
+        <v>349.2312537077154</v>
       </c>
       <c r="I8" t="n">
-        <v>249.9222771673705</v>
+        <v>251.6711954533415</v>
       </c>
       <c r="J8" t="n">
-        <v>93.77000049091893</v>
+        <v>97.62026320731691</v>
       </c>
       <c r="K8" t="n">
-        <v>47.19680489086682</v>
+        <v>52.96735062510157</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>7.158872249876708</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -27894,22 +27894,22 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39.2595863707439</v>
+        <v>45.7830708573658</v>
       </c>
       <c r="Q8" t="n">
-        <v>108.2756328645375</v>
+        <v>113.174498036813</v>
       </c>
       <c r="R8" t="n">
-        <v>204.1801566692163</v>
+        <v>207.0297899817414</v>
       </c>
       <c r="S8" t="n">
-        <v>233.2799471440838</v>
+        <v>234.313692697331</v>
       </c>
       <c r="T8" t="n">
-        <v>218.9618734208938</v>
+        <v>219.1604569056701</v>
       </c>
       <c r="U8" t="n">
-        <v>248.7818563658271</v>
+        <v>248.7854855328818</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -27946,19 +27946,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>160.968302702022</v>
+        <v>160.9925748965396</v>
       </c>
       <c r="H9" t="n">
-        <v>137.2996833538022</v>
+        <v>137.5341016534855</v>
       </c>
       <c r="I9" t="n">
-        <v>115.3441745601174</v>
+        <v>116.1798619590789</v>
       </c>
       <c r="J9" t="n">
-        <v>77.04951705849162</v>
+        <v>79.34270715543803</v>
       </c>
       <c r="K9" t="n">
-        <v>3.505456574455792</v>
+        <v>7.424883704081893</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -27976,19 +27976,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>47.86993696819729</v>
+        <v>50.96826130697117</v>
       </c>
       <c r="R9" t="n">
-        <v>151.4950089952352</v>
+        <v>153.0020141951968</v>
       </c>
       <c r="S9" t="n">
-        <v>207.155739585213</v>
+        <v>207.6065849526782</v>
       </c>
       <c r="T9" t="n">
-        <v>229.9072076709146</v>
+        <v>230.0050416479395</v>
       </c>
       <c r="U9" t="n">
-        <v>249.6464844945162</v>
+        <v>249.6480813494187</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -28025,49 +28025,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.1952603384582</v>
+        <v>169.2156093309859</v>
       </c>
       <c r="H10" t="n">
-        <v>167.229802441839</v>
+        <v>167.4107234844944</v>
       </c>
       <c r="I10" t="n">
-        <v>166.5590548534935</v>
+        <v>167.1710045560539</v>
       </c>
       <c r="J10" t="n">
-        <v>129.5144356358626</v>
+        <v>130.9531094075712</v>
       </c>
       <c r="K10" t="n">
-        <v>82.91916491057385</v>
+        <v>85.2833478606107</v>
       </c>
       <c r="L10" t="n">
-        <v>55.200311568079</v>
+        <v>58.22565178442505</v>
       </c>
       <c r="M10" t="n">
-        <v>51.51487037948515</v>
+        <v>54.70466745362327</v>
       </c>
       <c r="N10" t="n">
-        <v>39.31857284105146</v>
+        <v>42.4325236703136</v>
       </c>
       <c r="O10" t="n">
-        <v>65.19658738606127</v>
+        <v>68.07282498443159</v>
       </c>
       <c r="P10" t="n">
-        <v>85.11764828316647</v>
+        <v>87.57876643397165</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.3627888804421</v>
+        <v>150.0667395183756</v>
       </c>
       <c r="R10" t="n">
-        <v>219.2944285325528</v>
+        <v>220.2093932329349</v>
       </c>
       <c r="S10" t="n">
-        <v>243.0102310475085</v>
+        <v>243.364858490014</v>
       </c>
       <c r="T10" t="n">
-        <v>217.9194847003273</v>
+        <v>218.0064303956729</v>
       </c>
       <c r="U10" t="n">
-        <v>291.2174461108205</v>
+        <v>291.2185560558675</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.496864636411381</v>
+        <v>1.45150004822719</v>
       </c>
       <c r="H8" t="n">
-        <v>15.32976495764806</v>
+        <v>14.86517486890672</v>
       </c>
       <c r="I8" t="n">
-        <v>57.70787389524983</v>
+        <v>55.95895560927881</v>
       </c>
       <c r="J8" t="n">
-        <v>127.0445149346206</v>
+        <v>123.1942522182226</v>
       </c>
       <c r="K8" t="n">
-        <v>190.4067949939144</v>
+        <v>184.6362492596796</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2164661104893</v>
+        <v>229.0575938606125</v>
       </c>
       <c r="M8" t="n">
-        <v>262.8363325882701</v>
+        <v>254.8707078432728</v>
       </c>
       <c r="N8" t="n">
-        <v>267.089299236474</v>
+        <v>258.9947823552984</v>
       </c>
       <c r="O8" t="n">
-        <v>252.2048515081583</v>
+        <v>244.5614287507392</v>
       </c>
       <c r="P8" t="n">
-        <v>215.2510057967523</v>
+        <v>208.7275213101304</v>
       </c>
       <c r="Q8" t="n">
-        <v>161.6445410052697</v>
+        <v>156.7456758329941</v>
       </c>
       <c r="R8" t="n">
-        <v>94.02742321697652</v>
+        <v>91.17778990445133</v>
       </c>
       <c r="S8" t="n">
-        <v>34.10980290222439</v>
+        <v>33.07605734897714</v>
       </c>
       <c r="T8" t="n">
-        <v>6.552524945890824</v>
+        <v>6.35394146111453</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1197491709129105</v>
+        <v>0.1161200038581752</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8008931873025619</v>
+        <v>0.7766209927849544</v>
       </c>
       <c r="H9" t="n">
-        <v>7.734942098422112</v>
+        <v>7.500523798738903</v>
       </c>
       <c r="I9" t="n">
-        <v>27.57461193125049</v>
+        <v>26.738924532289</v>
       </c>
       <c r="J9" t="n">
-        <v>75.66684275300214</v>
+        <v>73.37365265605573</v>
       </c>
       <c r="K9" t="n">
-        <v>129.3266863022738</v>
+        <v>125.4072591726477</v>
       </c>
       <c r="L9" t="n">
-        <v>173.8956896377778</v>
+        <v>168.6255361746455</v>
       </c>
       <c r="M9" t="n">
-        <v>202.9280676774956</v>
+        <v>196.7780471631</v>
       </c>
       <c r="N9" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O9" t="n">
-        <v>190.5528628579038</v>
+        <v>184.7778903316027</v>
       </c>
       <c r="P9" t="n">
-        <v>152.9354718806094</v>
+        <v>148.3005472976814</v>
       </c>
       <c r="Q9" t="n">
-        <v>102.2333128212884</v>
+        <v>99.13498848251454</v>
       </c>
       <c r="R9" t="n">
-        <v>49.72563140111873</v>
+        <v>48.2186262011571</v>
       </c>
       <c r="S9" t="n">
-        <v>14.87623968520328</v>
+        <v>14.42539431773807</v>
       </c>
       <c r="T9" t="n">
-        <v>3.228161575136202</v>
+        <v>3.130327598111284</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05269034126990541</v>
+        <v>0.05109348636743123</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6714419444886303</v>
+        <v>0.6510929519609266</v>
       </c>
       <c r="H10" t="n">
-        <v>5.969729288271644</v>
+        <v>5.788808245616242</v>
       </c>
       <c r="I10" t="n">
-        <v>20.19209047607627</v>
+        <v>19.58014077351587</v>
       </c>
       <c r="J10" t="n">
-        <v>47.47094547534616</v>
+        <v>46.03227170363751</v>
       </c>
       <c r="K10" t="n">
-        <v>78.00934591422448</v>
+        <v>75.64516296418763</v>
       </c>
       <c r="L10" t="n">
-        <v>99.82510509242783</v>
+        <v>96.79976487608178</v>
       </c>
       <c r="M10" t="n">
-        <v>105.2515768074314</v>
+        <v>102.0617797332932</v>
       </c>
       <c r="N10" t="n">
-        <v>102.748929559792</v>
+        <v>99.63497873052987</v>
       </c>
       <c r="O10" t="n">
-        <v>94.90526684462934</v>
+        <v>92.02902924625901</v>
       </c>
       <c r="P10" t="n">
-        <v>81.20785117706122</v>
+        <v>78.74673302625604</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.22410682440704</v>
+        <v>54.5201561864736</v>
       </c>
       <c r="R10" t="n">
-        <v>30.19047143127968</v>
+        <v>29.27550673089766</v>
       </c>
       <c r="S10" t="n">
-        <v>11.70140188713367</v>
+        <v>11.34677444462814</v>
       </c>
       <c r="T10" t="n">
-        <v>2.868888308269602</v>
+        <v>2.781942612923959</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03662410606301624</v>
+        <v>0.03551416101605059</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.91101349587286</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H11" t="n">
-        <v>19.57116696460793</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I11" t="n">
-        <v>73.67434779963848</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J11" t="n">
-        <v>162.1948816953393</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K11" t="n">
-        <v>243.0880829756375</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L11" t="n">
-        <v>301.5722622499565</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M11" t="n">
-        <v>335.5572485071855</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N11" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O11" t="n">
-        <v>321.9842751527485</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P11" t="n">
-        <v>274.8061294733873</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q11" t="n">
-        <v>206.3679586524404</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R11" t="n">
-        <v>120.0427015101236</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S11" t="n">
-        <v>43.54722003720283</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T11" t="n">
-        <v>8.365461578183448</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1528810796698287</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.022482362438012</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H12" t="n">
-        <v>9.875027026703963</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I12" t="n">
-        <v>35.20388835587017</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J12" t="n">
-        <v>96.60216039156678</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K12" t="n">
-        <v>165.1084786749136</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L12" t="n">
         <v>202.635780428066</v>
@@ -31858,22 +31858,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P12" t="n">
-        <v>195.2492855080096</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.5189766508593</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R12" t="n">
-        <v>63.48359790645837</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S12" t="n">
-        <v>18.99216142510956</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T12" t="n">
-        <v>4.121321452107601</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06726857647618505</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8572148652593632</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H13" t="n">
-        <v>7.621419438396889</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I13" t="n">
-        <v>25.77878885707249</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J13" t="n">
-        <v>60.60509097383697</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K13" t="n">
-        <v>99.59278161831507</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L13" t="n">
-        <v>127.444471876833</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M13" t="n">
-        <v>134.3723265606109</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N13" t="n">
-        <v>131.177252971917</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O13" t="n">
-        <v>121.1634247732053</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P13" t="n">
-        <v>103.6762415219142</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.7800556718545</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R13" t="n">
-        <v>38.54349748702554</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S13" t="n">
-        <v>14.93891724274726</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T13" t="n">
-        <v>3.662645333380914</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04675717446869259</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.91101349587286</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H14" t="n">
-        <v>19.57116696460793</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I14" t="n">
-        <v>73.67434779963848</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J14" t="n">
-        <v>162.1948816953393</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K14" t="n">
-        <v>243.0880829756375</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L14" t="n">
-        <v>301.5722622499565</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M14" t="n">
-        <v>335.5572485071855</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N14" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O14" t="n">
-        <v>321.9842751527485</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P14" t="n">
-        <v>274.8061294733873</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q14" t="n">
-        <v>206.3679586524404</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R14" t="n">
-        <v>120.0427015101236</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S14" t="n">
-        <v>43.54722003720283</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T14" t="n">
-        <v>8.365461578183448</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1528810796698287</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.022482362438012</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H15" t="n">
-        <v>9.875027026703963</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I15" t="n">
-        <v>35.20388835587017</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J15" t="n">
-        <v>96.60216039156678</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K15" t="n">
-        <v>165.1084786749136</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L15" t="n">
         <v>202.635780428066</v>
@@ -32095,22 +32095,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P15" t="n">
-        <v>195.2492855080096</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.5189766508593</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R15" t="n">
-        <v>63.48359790645837</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S15" t="n">
-        <v>18.99216142510956</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T15" t="n">
-        <v>4.121321452107601</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06726857647618505</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8572148652593632</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H16" t="n">
-        <v>7.621419438396889</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I16" t="n">
-        <v>25.77878885707249</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J16" t="n">
-        <v>60.60509097383697</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K16" t="n">
-        <v>99.59278161831507</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L16" t="n">
-        <v>127.444471876833</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M16" t="n">
-        <v>134.3723265606109</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N16" t="n">
-        <v>131.177252971917</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O16" t="n">
-        <v>121.1634247732053</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P16" t="n">
-        <v>103.6762415219142</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.7800556718545</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R16" t="n">
-        <v>38.54349748702554</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S16" t="n">
-        <v>14.93891724274726</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T16" t="n">
-        <v>3.662645333380914</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04675717446869259</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.91101349587286</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H17" t="n">
-        <v>19.57116696460793</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I17" t="n">
-        <v>73.67434779963848</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J17" t="n">
-        <v>162.1948816953393</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K17" t="n">
-        <v>243.0880829756375</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L17" t="n">
-        <v>301.5722622499565</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M17" t="n">
-        <v>335.5572485071855</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N17" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O17" t="n">
-        <v>321.9842751527485</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P17" t="n">
-        <v>274.8061294733873</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q17" t="n">
-        <v>206.3679586524404</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R17" t="n">
-        <v>120.0427015101236</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S17" t="n">
-        <v>43.54722003720283</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T17" t="n">
-        <v>8.365461578183448</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1528810796698287</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.022482362438012</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H18" t="n">
-        <v>9.875027026703963</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I18" t="n">
-        <v>35.20388835587017</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J18" t="n">
-        <v>96.60216039156678</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K18" t="n">
-        <v>165.1084786749136</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L18" t="n">
         <v>202.635780428066</v>
@@ -32332,22 +32332,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P18" t="n">
-        <v>195.2492855080096</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.5189766508593</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R18" t="n">
-        <v>63.48359790645837</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S18" t="n">
-        <v>18.99216142510956</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T18" t="n">
-        <v>4.121321452107601</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06726857647618505</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8572148652593632</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H19" t="n">
-        <v>7.621419438396889</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I19" t="n">
-        <v>25.77878885707249</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J19" t="n">
-        <v>60.60509097383697</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K19" t="n">
-        <v>99.59278161831507</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L19" t="n">
-        <v>127.444471876833</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M19" t="n">
-        <v>134.3723265606109</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N19" t="n">
-        <v>131.177252971917</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O19" t="n">
-        <v>121.1634247732053</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P19" t="n">
-        <v>103.6762415219142</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q19" t="n">
-        <v>71.7800556718545</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R19" t="n">
-        <v>38.54349748702554</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S19" t="n">
-        <v>14.93891724274726</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T19" t="n">
-        <v>3.662645333380914</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04675717446869259</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.91101349587286</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H20" t="n">
-        <v>19.57116696460793</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I20" t="n">
-        <v>73.67434779963848</v>
+        <v>73.93406180093318</v>
       </c>
       <c r="J20" t="n">
-        <v>162.1948816953393</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K20" t="n">
-        <v>243.0880829756375</v>
+        <v>243.9450078155879</v>
       </c>
       <c r="L20" t="n">
-        <v>301.5722622499565</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M20" t="n">
-        <v>335.5572485071855</v>
+        <v>336.7401421231595</v>
       </c>
       <c r="N20" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O20" t="n">
-        <v>321.9842751527485</v>
+        <v>323.1193218406583</v>
       </c>
       <c r="P20" t="n">
-        <v>274.8061294733873</v>
+        <v>275.774865561285</v>
       </c>
       <c r="Q20" t="n">
-        <v>206.3679586524404</v>
+        <v>207.0954391104473</v>
       </c>
       <c r="R20" t="n">
-        <v>120.0427015101236</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S20" t="n">
-        <v>43.54722003720283</v>
+        <v>43.70073103660631</v>
       </c>
       <c r="T20" t="n">
-        <v>8.365461578183448</v>
+        <v>8.394951184322284</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1528810796698287</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.022482362438012</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H21" t="n">
-        <v>9.875027026703963</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I21" t="n">
-        <v>35.20388835587017</v>
+        <v>35.32798776060327</v>
       </c>
       <c r="J21" t="n">
-        <v>96.60216039156678</v>
+        <v>96.94269864345925</v>
       </c>
       <c r="K21" t="n">
-        <v>165.1084786749136</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L21" t="n">
         <v>202.635780428066</v>
@@ -32569,22 +32569,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P21" t="n">
-        <v>195.2492855080096</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.5189766508593</v>
+        <v>130.9790771700124</v>
       </c>
       <c r="R21" t="n">
-        <v>63.48359790645837</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S21" t="n">
-        <v>18.99216142510956</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T21" t="n">
-        <v>4.121321452107601</v>
+        <v>4.135849777324126</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06726857647618505</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8572148652593632</v>
+        <v>0.8602366864125176</v>
       </c>
       <c r="H22" t="n">
-        <v>7.621419438396889</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I22" t="n">
-        <v>25.77878885707249</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J22" t="n">
-        <v>60.60509097383697</v>
+        <v>60.81873372936499</v>
       </c>
       <c r="K22" t="n">
-        <v>99.59278161831507</v>
+        <v>99.94386229410884</v>
       </c>
       <c r="L22" t="n">
-        <v>127.444471876833</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M22" t="n">
-        <v>134.3723265606109</v>
+        <v>134.8460107619185</v>
       </c>
       <c r="N22" t="n">
-        <v>131.177252971917</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O22" t="n">
-        <v>121.1634247732053</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P22" t="n">
-        <v>103.6762415219142</v>
+        <v>104.0417170548375</v>
       </c>
       <c r="Q22" t="n">
-        <v>71.7800556718545</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R22" t="n">
-        <v>38.54349748702554</v>
+        <v>38.67936955451191</v>
       </c>
       <c r="S22" t="n">
-        <v>14.93891724274726</v>
+        <v>14.99157934411632</v>
       </c>
       <c r="T22" t="n">
-        <v>3.662645333380914</v>
+        <v>3.675556751035301</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04675717446869259</v>
+        <v>0.04692200107704647</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.91101349587286</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H23" t="n">
-        <v>19.57116696460793</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I23" t="n">
-        <v>73.67434779963848</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J23" t="n">
-        <v>162.1948816953393</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K23" t="n">
-        <v>243.0880829756375</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L23" t="n">
-        <v>301.5722622499565</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M23" t="n">
-        <v>335.5572485071855</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N23" t="n">
-        <v>340.9869156023342</v>
+        <v>342.188949673692</v>
       </c>
       <c r="O23" t="n">
-        <v>321.9842751527485</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P23" t="n">
-        <v>274.8061294733873</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q23" t="n">
-        <v>206.3679586524404</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R23" t="n">
-        <v>120.0427015101236</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S23" t="n">
-        <v>43.54722003720283</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T23" t="n">
-        <v>8.365461578183448</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1528810796698287</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.022482362438012</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H24" t="n">
-        <v>9.875027026703963</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I24" t="n">
-        <v>35.20388835587017</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J24" t="n">
-        <v>96.60216039156678</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K24" t="n">
-        <v>165.1084786749136</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L24" t="n">
-        <v>208.106090520386</v>
+        <v>209.3081245917437</v>
       </c>
       <c r="M24" t="n">
-        <v>213.3413347032719</v>
+        <v>214.2737791114507</v>
       </c>
       <c r="N24" t="n">
-        <v>197.557564014195</v>
+        <v>198.7595980855527</v>
       </c>
       <c r="O24" t="n">
-        <v>213.7962949623273</v>
+        <v>215.2193516636777</v>
       </c>
       <c r="P24" t="n">
-        <v>195.2492855080096</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.5189766508593</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R24" t="n">
-        <v>63.48359790645837</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S24" t="n">
-        <v>18.99216142510956</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T24" t="n">
-        <v>4.121321452107601</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06726857647618505</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8572148652593632</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H25" t="n">
-        <v>7.621419438396889</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I25" t="n">
-        <v>25.77878885707249</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J25" t="n">
-        <v>60.60509097383697</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K25" t="n">
-        <v>99.59278161831507</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L25" t="n">
-        <v>127.444471876833</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M25" t="n">
-        <v>134.3723265606109</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N25" t="n">
-        <v>131.177252971917</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O25" t="n">
-        <v>121.1634247732053</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P25" t="n">
-        <v>103.6762415219142</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q25" t="n">
-        <v>71.7800556718545</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R25" t="n">
-        <v>38.54349748702554</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S25" t="n">
-        <v>14.93891724274726</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T25" t="n">
-        <v>3.662645333380914</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04675717446869259</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.91101349587286</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H26" t="n">
-        <v>19.57116696460793</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I26" t="n">
-        <v>73.67434779963848</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J26" t="n">
-        <v>162.1948816953393</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K26" t="n">
-        <v>243.0880829756375</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L26" t="n">
-        <v>301.5722622499565</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M26" t="n">
-        <v>335.5572485071855</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N26" t="n">
-        <v>340.9869156023343</v>
+        <v>342.188949673692</v>
       </c>
       <c r="O26" t="n">
-        <v>321.9842751527485</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P26" t="n">
-        <v>274.8061294733873</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q26" t="n">
-        <v>206.3679586524404</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R26" t="n">
-        <v>120.0427015101236</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S26" t="n">
-        <v>43.54722003720283</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T26" t="n">
-        <v>8.365461578183448</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1528810796698287</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.022482362438012</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H27" t="n">
-        <v>9.875027026703963</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I27" t="n">
-        <v>35.20388835587017</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J27" t="n">
-        <v>96.60216039156678</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K27" t="n">
-        <v>165.1084786749136</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L27" t="n">
-        <v>208.106090520386</v>
+        <v>209.3081245917437</v>
       </c>
       <c r="M27" t="n">
-        <v>213.3413347032719</v>
+        <v>214.5433687746296</v>
       </c>
       <c r="N27" t="n">
-        <v>197.557564014195</v>
+        <v>198.4900084223738</v>
       </c>
       <c r="O27" t="n">
-        <v>213.7962949623273</v>
+        <v>215.2193516636777</v>
       </c>
       <c r="P27" t="n">
-        <v>195.2492855080096</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.5189766508593</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R27" t="n">
-        <v>63.48359790645837</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S27" t="n">
-        <v>18.99216142510956</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T27" t="n">
-        <v>4.121321452107601</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06726857647618505</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8572148652593632</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H28" t="n">
-        <v>7.621419438396889</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I28" t="n">
-        <v>25.77878885707249</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J28" t="n">
-        <v>60.60509097383697</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K28" t="n">
-        <v>99.59278161831507</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L28" t="n">
-        <v>127.444471876833</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M28" t="n">
-        <v>134.3723265606109</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N28" t="n">
-        <v>131.177252971917</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O28" t="n">
-        <v>121.1634247732053</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P28" t="n">
-        <v>103.6762415219142</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q28" t="n">
-        <v>71.7800556718545</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R28" t="n">
-        <v>38.54349748702554</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S28" t="n">
-        <v>14.93891724274726</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T28" t="n">
-        <v>3.662645333380914</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04675717446869259</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.91101349587286</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H29" t="n">
-        <v>19.57116696460793</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I29" t="n">
-        <v>73.67434779963848</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J29" t="n">
-        <v>162.1948816953393</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K29" t="n">
-        <v>243.0880829756375</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L29" t="n">
-        <v>301.5722622499565</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M29" t="n">
-        <v>335.5572485071855</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N29" t="n">
-        <v>340.9869156023342</v>
+        <v>342.188949673692</v>
       </c>
       <c r="O29" t="n">
-        <v>321.9842751527485</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P29" t="n">
-        <v>274.8061294733873</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q29" t="n">
-        <v>206.3679586524404</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R29" t="n">
-        <v>120.0427015101236</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S29" t="n">
-        <v>43.54722003720283</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T29" t="n">
-        <v>8.365461578183448</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1528810796698287</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.022482362438012</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H30" t="n">
-        <v>9.875027026703963</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I30" t="n">
-        <v>35.20388835587017</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J30" t="n">
-        <v>96.60216039156678</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K30" t="n">
-        <v>165.1084786749136</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L30" t="n">
-        <v>208.106090520386</v>
+        <v>209.0385349285648</v>
       </c>
       <c r="M30" t="n">
-        <v>213.3413347032719</v>
+        <v>214.5433687746296</v>
       </c>
       <c r="N30" t="n">
-        <v>197.557564014195</v>
+        <v>198.7595980855527</v>
       </c>
       <c r="O30" t="n">
-        <v>213.7962949623273</v>
+        <v>215.2193516636777</v>
       </c>
       <c r="P30" t="n">
-        <v>195.2492855080096</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.5189766508593</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R30" t="n">
-        <v>63.48359790645837</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S30" t="n">
-        <v>18.99216142510956</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T30" t="n">
-        <v>4.121321452107601</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06726857647618505</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8572148652593632</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H31" t="n">
-        <v>7.621419438396889</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I31" t="n">
-        <v>25.77878885707249</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J31" t="n">
-        <v>60.60509097383697</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K31" t="n">
-        <v>99.59278161831507</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L31" t="n">
-        <v>127.444471876833</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M31" t="n">
-        <v>134.3723265606109</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N31" t="n">
-        <v>131.177252971917</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O31" t="n">
-        <v>121.1634247732053</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P31" t="n">
-        <v>103.6762415219142</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q31" t="n">
-        <v>71.7800556718545</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R31" t="n">
-        <v>38.54349748702554</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S31" t="n">
-        <v>14.93891724274726</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T31" t="n">
-        <v>3.662645333380914</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04675717446869259</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.91101349587286</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H32" t="n">
-        <v>19.57116696460793</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I32" t="n">
-        <v>73.67434779963848</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J32" t="n">
-        <v>162.1948816953393</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K32" t="n">
-        <v>243.0880829756375</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L32" t="n">
-        <v>301.5722622499565</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M32" t="n">
-        <v>335.5572485071855</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N32" t="n">
-        <v>340.9869156023342</v>
+        <v>342.188949673692</v>
       </c>
       <c r="O32" t="n">
-        <v>321.9842751527485</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P32" t="n">
-        <v>274.8061294733873</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q32" t="n">
-        <v>206.3679586524404</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R32" t="n">
-        <v>120.0427015101236</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S32" t="n">
-        <v>43.54722003720283</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T32" t="n">
-        <v>8.365461578183448</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1528810796698287</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.022482362438012</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H33" t="n">
-        <v>9.875027026703963</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I33" t="n">
-        <v>35.20388835587017</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J33" t="n">
-        <v>96.60216039156678</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K33" t="n">
-        <v>165.1084786749136</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L33" t="n">
-        <v>208.106090520386</v>
+        <v>209.0385349285648</v>
       </c>
       <c r="M33" t="n">
-        <v>213.3413347032719</v>
+        <v>214.5433687746296</v>
       </c>
       <c r="N33" t="n">
-        <v>197.3365413842023</v>
+        <v>198.7595980855527</v>
       </c>
       <c r="O33" t="n">
-        <v>214.01731759232</v>
+        <v>215.2193516636777</v>
       </c>
       <c r="P33" t="n">
-        <v>195.2492855080096</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.5189766508593</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R33" t="n">
-        <v>63.48359790645837</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S33" t="n">
-        <v>18.99216142510956</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T33" t="n">
-        <v>4.121321452107601</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06726857647618505</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8572148652593632</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H34" t="n">
-        <v>7.621419438396889</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I34" t="n">
-        <v>25.77878885707249</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J34" t="n">
-        <v>60.60509097383697</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K34" t="n">
-        <v>99.59278161831507</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L34" t="n">
-        <v>127.444471876833</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M34" t="n">
-        <v>134.3723265606109</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N34" t="n">
-        <v>131.177252971917</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O34" t="n">
-        <v>121.1634247732053</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P34" t="n">
-        <v>103.6762415219142</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q34" t="n">
-        <v>71.7800556718545</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R34" t="n">
-        <v>38.54349748702554</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S34" t="n">
-        <v>14.93891724274726</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T34" t="n">
-        <v>3.662645333380914</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04675717446869259</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.91101349587286</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H35" t="n">
-        <v>19.57116696460793</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I35" t="n">
-        <v>73.67434779963848</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J35" t="n">
-        <v>162.1948816953393</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K35" t="n">
-        <v>243.0880829756375</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L35" t="n">
-        <v>301.5722622499565</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M35" t="n">
-        <v>335.5572485071855</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N35" t="n">
-        <v>340.9869156023342</v>
+        <v>342.188949673692</v>
       </c>
       <c r="O35" t="n">
-        <v>321.9842751527485</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P35" t="n">
-        <v>274.8061294733873</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q35" t="n">
-        <v>206.3679586524404</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R35" t="n">
-        <v>120.0427015101236</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S35" t="n">
-        <v>43.54722003720283</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T35" t="n">
-        <v>8.365461578183448</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1528810796698287</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.022482362438012</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H36" t="n">
-        <v>9.875027026703963</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I36" t="n">
-        <v>35.20388835587017</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J36" t="n">
-        <v>96.60216039156678</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K36" t="n">
-        <v>165.1084786749136</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L36" t="n">
-        <v>208.106090520386</v>
+        <v>209.3081245917437</v>
       </c>
       <c r="M36" t="n">
-        <v>213.1203120732791</v>
+        <v>214.5433687746296</v>
       </c>
       <c r="N36" t="n">
-        <v>197.557564014195</v>
+        <v>198.4900084223738</v>
       </c>
       <c r="O36" t="n">
-        <v>214.01731759232</v>
+        <v>215.2193516636777</v>
       </c>
       <c r="P36" t="n">
-        <v>195.2492855080096</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.5189766508593</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R36" t="n">
-        <v>63.48359790645837</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S36" t="n">
-        <v>18.99216142510956</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T36" t="n">
-        <v>4.121321452107601</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06726857647618505</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8572148652593632</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H37" t="n">
-        <v>7.621419438396889</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I37" t="n">
-        <v>25.77878885707249</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J37" t="n">
-        <v>60.60509097383697</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K37" t="n">
-        <v>99.59278161831507</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L37" t="n">
-        <v>127.444471876833</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M37" t="n">
-        <v>134.3723265606109</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N37" t="n">
-        <v>131.177252971917</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O37" t="n">
-        <v>121.1634247732053</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P37" t="n">
-        <v>103.6762415219142</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q37" t="n">
-        <v>71.7800556718545</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R37" t="n">
-        <v>38.54349748702554</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S37" t="n">
-        <v>14.93891724274726</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T37" t="n">
-        <v>3.662645333380914</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04675717446869259</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.91101349587286</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H38" t="n">
-        <v>19.57116696460793</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I38" t="n">
-        <v>73.67434779963848</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J38" t="n">
-        <v>162.1948816953393</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K38" t="n">
-        <v>243.0880829756375</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L38" t="n">
-        <v>301.5722622499565</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M38" t="n">
-        <v>335.5572485071855</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N38" t="n">
-        <v>340.9869156023342</v>
+        <v>342.188949673692</v>
       </c>
       <c r="O38" t="n">
-        <v>321.9842751527485</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P38" t="n">
-        <v>274.8061294733873</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q38" t="n">
-        <v>206.3679586524404</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R38" t="n">
-        <v>120.0427015101236</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S38" t="n">
-        <v>43.54722003720283</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T38" t="n">
-        <v>8.365461578183448</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1528810796698287</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.022482362438012</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H39" t="n">
-        <v>9.875027026703963</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I39" t="n">
-        <v>35.20388835587017</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J39" t="n">
-        <v>96.60216039156678</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K39" t="n">
-        <v>165.1084786749136</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L39" t="n">
-        <v>207.8850678903933</v>
+        <v>209.3081245917437</v>
       </c>
       <c r="M39" t="n">
-        <v>213.3413347032719</v>
+        <v>214.5433687746296</v>
       </c>
       <c r="N39" t="n">
-        <v>197.557564014195</v>
+        <v>198.7595980855527</v>
       </c>
       <c r="O39" t="n">
-        <v>214.01731759232</v>
+        <v>214.9497620004988</v>
       </c>
       <c r="P39" t="n">
-        <v>195.2492855080096</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.5189766508593</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R39" t="n">
-        <v>63.48359790645837</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S39" t="n">
-        <v>18.99216142510956</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T39" t="n">
-        <v>4.121321452107601</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06726857647618505</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8572148652593632</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H40" t="n">
-        <v>7.621419438396889</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I40" t="n">
-        <v>25.77878885707249</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J40" t="n">
-        <v>60.60509097383697</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K40" t="n">
-        <v>99.59278161831507</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L40" t="n">
-        <v>127.444471876833</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M40" t="n">
-        <v>134.3723265606109</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N40" t="n">
-        <v>131.177252971917</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O40" t="n">
-        <v>121.1634247732053</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P40" t="n">
-        <v>103.6762415219142</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q40" t="n">
-        <v>71.7800556718545</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R40" t="n">
-        <v>38.54349748702554</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S40" t="n">
-        <v>14.93891724274726</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T40" t="n">
-        <v>3.662645333380914</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04675717446869259</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.91101349587286</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H41" t="n">
-        <v>19.57116696460793</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I41" t="n">
-        <v>73.67434779963848</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J41" t="n">
-        <v>162.1948816953393</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K41" t="n">
-        <v>243.0880829756375</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L41" t="n">
-        <v>301.5722622499565</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M41" t="n">
-        <v>335.5572485071855</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N41" t="n">
-        <v>340.9869156023342</v>
+        <v>342.188949673692</v>
       </c>
       <c r="O41" t="n">
-        <v>321.9842751527485</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P41" t="n">
-        <v>274.8061294733873</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q41" t="n">
-        <v>206.3679586524404</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R41" t="n">
-        <v>120.0427015101236</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S41" t="n">
-        <v>43.54722003720283</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T41" t="n">
-        <v>8.365461578183448</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1528810796698287</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.022482362438012</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H42" t="n">
-        <v>9.875027026703963</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I42" t="n">
-        <v>35.20388835587017</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J42" t="n">
-        <v>96.60216039156678</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K42" t="n">
-        <v>165.1084786749136</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L42" t="n">
-        <v>208.106090520386</v>
+        <v>209.3081245917437</v>
       </c>
       <c r="M42" t="n">
-        <v>213.3413347032719</v>
+        <v>214.2737791114507</v>
       </c>
       <c r="N42" t="n">
-        <v>197.557564014195</v>
+        <v>198.7595980855527</v>
       </c>
       <c r="O42" t="n">
-        <v>213.7962949623273</v>
+        <v>215.2193516636777</v>
       </c>
       <c r="P42" t="n">
-        <v>195.2492855080096</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.5189766508593</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R42" t="n">
-        <v>63.48359790645837</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S42" t="n">
-        <v>18.99216142510956</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T42" t="n">
-        <v>4.121321452107601</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06726857647618505</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8572148652593632</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H43" t="n">
-        <v>7.621419438396889</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I43" t="n">
-        <v>25.77878885707249</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J43" t="n">
-        <v>60.60509097383697</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K43" t="n">
-        <v>99.59278161831507</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L43" t="n">
-        <v>127.444471876833</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M43" t="n">
-        <v>134.3723265606109</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N43" t="n">
-        <v>131.177252971917</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O43" t="n">
-        <v>121.1634247732053</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P43" t="n">
-        <v>103.6762415219142</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q43" t="n">
-        <v>71.7800556718545</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R43" t="n">
-        <v>38.54349748702554</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S43" t="n">
-        <v>14.93891724274726</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T43" t="n">
-        <v>3.662645333380914</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04675717446869259</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.91101349587286</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H44" t="n">
-        <v>19.57116696460793</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I44" t="n">
-        <v>73.67434779963848</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J44" t="n">
-        <v>162.1948816953393</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K44" t="n">
-        <v>243.0880829756375</v>
+        <v>243.945007815588</v>
       </c>
       <c r="L44" t="n">
-        <v>301.5722622499565</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M44" t="n">
-        <v>335.5572485071855</v>
+        <v>336.7401421231596</v>
       </c>
       <c r="N44" t="n">
-        <v>340.9869156023342</v>
+        <v>342.188949673692</v>
       </c>
       <c r="O44" t="n">
-        <v>321.9842751527485</v>
+        <v>323.1193218406584</v>
       </c>
       <c r="P44" t="n">
-        <v>274.8061294733873</v>
+        <v>275.7748655612851</v>
       </c>
       <c r="Q44" t="n">
-        <v>206.3679586524404</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R44" t="n">
-        <v>120.0427015101236</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S44" t="n">
-        <v>43.54722003720283</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T44" t="n">
-        <v>8.365461578183448</v>
+        <v>8.394951184322286</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1528810796698287</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.022482362438012</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H45" t="n">
-        <v>9.875027026703963</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I45" t="n">
-        <v>35.20388835587017</v>
+        <v>35.32798776060328</v>
       </c>
       <c r="J45" t="n">
-        <v>96.60216039156678</v>
+        <v>96.94269864345927</v>
       </c>
       <c r="K45" t="n">
-        <v>165.1084786749136</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L45" t="n">
-        <v>208.106090520386</v>
+        <v>209.3081245917437</v>
       </c>
       <c r="M45" t="n">
-        <v>213.3413347032719</v>
+        <v>214.5433687746296</v>
       </c>
       <c r="N45" t="n">
-        <v>197.3365413842023</v>
+        <v>198.7595980855527</v>
       </c>
       <c r="O45" t="n">
-        <v>214.01731759232</v>
+        <v>214.9497620004988</v>
       </c>
       <c r="P45" t="n">
-        <v>195.2492855080096</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.5189766508593</v>
+        <v>130.9790771700125</v>
       </c>
       <c r="R45" t="n">
-        <v>63.48359790645837</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S45" t="n">
-        <v>18.99216142510956</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T45" t="n">
-        <v>4.121321452107601</v>
+        <v>4.135849777324127</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06726857647618505</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8572148652593632</v>
+        <v>0.8602366864125177</v>
       </c>
       <c r="H46" t="n">
-        <v>7.621419438396889</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I46" t="n">
-        <v>25.77878885707249</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J46" t="n">
-        <v>60.60509097383697</v>
+        <v>60.818733729365</v>
       </c>
       <c r="K46" t="n">
-        <v>99.59278161831507</v>
+        <v>99.94386229410885</v>
       </c>
       <c r="L46" t="n">
-        <v>127.444471876833</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M46" t="n">
-        <v>134.3723265606109</v>
+        <v>134.8460107619186</v>
       </c>
       <c r="N46" t="n">
-        <v>131.177252971917</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O46" t="n">
-        <v>121.1634247732053</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P46" t="n">
-        <v>103.6762415219142</v>
+        <v>104.0417170548376</v>
       </c>
       <c r="Q46" t="n">
-        <v>71.7800556718545</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R46" t="n">
-        <v>38.54349748702554</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S46" t="n">
-        <v>14.93891724274726</v>
+        <v>14.99157934411633</v>
       </c>
       <c r="T46" t="n">
-        <v>3.662645333380914</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04675717446869259</v>
+        <v>0.04692200107704648</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36366,16 +36366,16 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="N23" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="O23" t="n">
-        <v>5.249287462327307</v>
+        <v>6.402754500498839</v>
       </c>
       <c r="P23" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="M24" t="n">
-        <v>5.470310092320033</v>
+        <v>6.402754500498839</v>
       </c>
       <c r="N24" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="O24" t="n">
-        <v>5.249287462327307</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>6.341407930806753</v>
       </c>
       <c r="L26" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>5.470310092320033</v>
+        <v>0.06134656969208616</v>
       </c>
       <c r="N26" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="O26" t="n">
-        <v>5.249287462327307</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="M27" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="N27" t="n">
-        <v>5.470310092320033</v>
+        <v>6.402754500498839</v>
       </c>
       <c r="O27" t="n">
-        <v>5.249287462327307</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>5.470310092320033</v>
+        <v>6.341407930806753</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>0.06134656969208616</v>
       </c>
       <c r="N29" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="O29" t="n">
-        <v>5.249287462327307</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>5.470310092320033</v>
+        <v>6.402754500498839</v>
       </c>
       <c r="M30" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="N30" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="O30" t="n">
-        <v>5.249287462327307</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37071,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>6.341407930806753</v>
       </c>
       <c r="L32" t="n">
-        <v>5.249287462327307</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="N32" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="O32" t="n">
-        <v>5.470310092320033</v>
+        <v>0.06134656969208616</v>
       </c>
       <c r="P32" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37153,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>5.470310092320033</v>
+        <v>6.402754500498839</v>
       </c>
       <c r="M33" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="N33" t="n">
-        <v>5.249287462327307</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="O33" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37311,19 +37311,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>5.249287462327307</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="N35" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="P35" t="n">
-        <v>5.470310092320033</v>
+        <v>6.402754500498839</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37390,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="M36" t="n">
-        <v>5.249287462327307</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="N36" t="n">
-        <v>5.470310092320033</v>
+        <v>6.402754500498839</v>
       </c>
       <c r="O36" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="N38" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="O38" t="n">
-        <v>5.249287462327307</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="P38" t="n">
-        <v>5.470310092320033</v>
+        <v>6.402754500498839</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>5.249287462327307</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="M39" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="N39" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="O39" t="n">
-        <v>5.470310092320033</v>
+        <v>6.402754500498839</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>6.341407930806753</v>
       </c>
       <c r="L41" t="n">
-        <v>5.249287462327307</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>5.470310092320033</v>
+        <v>0.06134656969208616</v>
       </c>
       <c r="N41" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="P41" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="M42" t="n">
-        <v>5.470310092320033</v>
+        <v>6.402754500498839</v>
       </c>
       <c r="N42" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="O42" t="n">
-        <v>5.249287462327307</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>5.470310092320033</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="M44" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="N44" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>6.402754500498839</v>
       </c>
       <c r="P44" t="n">
-        <v>5.249287462327307</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="M45" t="n">
-        <v>5.470310092320033</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="N45" t="n">
-        <v>5.249287462327307</v>
+        <v>6.672344163677735</v>
       </c>
       <c r="O45" t="n">
-        <v>5.470310092320033</v>
+        <v>6.402754500498839</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
